--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BB50AC-76F7-494D-B2FF-55A40AC03431}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4254FCA-919F-4C59-B6C4-E01144E2C201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dummy" sheetId="25" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="696">
   <si>
     <t>Step#</t>
   </si>
@@ -2162,34 +2162,37 @@
     <t>//div[contains(@class,"animated success") and contains(.,'Deleted story')]</t>
   </si>
   <si>
-    <t>C:\Users\JunCarlo\Desktop\WKE_MVN\images\page1.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\JunCarlo\Desktop\WKE_MVN\images\page2.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\JunCarlo\Desktop\WKE_MVN\images\page3.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\JunCarlo\Desktop\WKE_MVN\images\page4.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\JunCarlo\Desktop\WKE_MVN\images\page6.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\JunCarlo\Desktop\WKE_MVN\images\page7.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\JunCarlo\Desktop\WKE_MVN\images\page8.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\JunCarlo\Desktop\WKE_MVN\images\page9.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\JunCarlo\Desktop\WKE_MVN\images\page10.jpg</t>
-  </si>
-  <si>
-    <t>C:\Users\JunCarlo\Desktop\WKE_MVN\images\page5.jpg</t>
+    <t>page1.jpg</t>
+  </si>
+  <si>
+    <t>page2.jpg</t>
+  </si>
+  <si>
+    <t>page3.jpg</t>
+  </si>
+  <si>
+    <t>page4.jpg</t>
+  </si>
+  <si>
+    <t>page5.jpg</t>
+  </si>
+  <si>
+    <t>page6.jpg</t>
+  </si>
+  <si>
+    <t>page7.jpg</t>
+  </si>
+  <si>
+    <t>page8.jpg</t>
+  </si>
+  <si>
+    <t>page9.jpg</t>
+  </si>
+  <si>
+    <t>page10.jpg</t>
+  </si>
+  <si>
+    <t>ImagePath</t>
   </si>
 </sst>
 </file>
@@ -9425,8 +9428,8 @@
   </sheetPr>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A16" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -9520,7 +9523,7 @@
         <v>351</v>
       </c>
       <c r="B11" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="409.5">
@@ -9536,7 +9539,7 @@
         <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.5">
@@ -9552,7 +9555,7 @@
         <v>356</v>
       </c>
       <c r="B15" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="315">
@@ -9568,7 +9571,7 @@
         <v>357</v>
       </c>
       <c r="B17" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="165">
@@ -9584,7 +9587,7 @@
         <v>358</v>
       </c>
       <c r="B19" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="300">
@@ -9600,7 +9603,7 @@
         <v>359</v>
       </c>
       <c r="B21" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="90">
@@ -16226,8 +16229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -18120,7 +18123,7 @@
         <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G82" t="s">
         <v>324</v>
@@ -18419,7 +18422,7 @@
         <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G95" t="s">
         <v>324</v>
@@ -18718,7 +18721,7 @@
         <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G108" t="s">
         <v>324</v>
@@ -19017,7 +19020,7 @@
         <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G121" t="s">
         <v>324</v>
@@ -19316,7 +19319,7 @@
         <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G134" t="s">
         <v>324</v>
@@ -19615,7 +19618,7 @@
         <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G147" t="s">
         <v>324</v>
@@ -19914,7 +19917,7 @@
         <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G160" t="s">
         <v>324</v>
@@ -20213,7 +20216,7 @@
         <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G173" t="s">
         <v>324</v>
@@ -20512,7 +20515,7 @@
         <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G186" t="s">
         <v>324</v>
@@ -20811,7 +20814,7 @@
         <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>328</v>
+        <v>695</v>
       </c>
       <c r="G199" t="s">
         <v>324</v>
@@ -22670,7 +22673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="114" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -28256,7 +28259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4254FCA-919F-4C59-B6C4-E01144E2C201}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB47C3-DEFC-4955-A460-99B256E39C0D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="746" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dummy" sheetId="25" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Variables" sheetId="3" r:id="rId12"/>
     <sheet name="action_kw_ref" sheetId="2" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5810" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5824" uniqueCount="698">
   <si>
     <t>Step#</t>
   </si>
@@ -2193,6 +2193,12 @@
   </si>
   <si>
     <t>ImagePath</t>
+  </si>
+  <si>
+    <t>TEST LABEL: Export user logs</t>
+  </si>
+  <si>
+    <t>TEST LABEL: Verify user logs content</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2348,12 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="732">
+  <dxfs count="734">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -2362,6 +2373,11 @@
     <dxf>
       <font>
         <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -7108,152 +7124,152 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6">
-    <cfRule type="cellIs" dxfId="731" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="730" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="729" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="728" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="727" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="726" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="725" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="724" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="723" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="722" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="721" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="720" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E20">
-    <cfRule type="cellIs" dxfId="719" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:H13">
-    <cfRule type="cellIs" dxfId="718" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="717" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H20">
-    <cfRule type="cellIs" dxfId="716" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="715" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="714" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31">
-    <cfRule type="cellIs" dxfId="713" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="cellIs" dxfId="712" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="cellIs" dxfId="711" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H26">
-    <cfRule type="cellIs" dxfId="710" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="709" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="cellIs" dxfId="708" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="707" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="706" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="705" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="704" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="703" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="702" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7633,47 +7649,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E13">
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H13">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14 E14">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 E15">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9108,312 +9124,312 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6">
-    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="64" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="62" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 E9">
-    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 H10">
-    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="51" priority="54" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:H19">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="46" priority="49" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28 E28">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29 H29">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:H26">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30 E30">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:H38">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27 E27">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 E47">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48 H48">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:H45">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 E49">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46 E46">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="14" priority="10" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:H56">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10466,27 +10482,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:G1">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E3 D2:G2">
-    <cfRule type="beginsWith" dxfId="2" priority="3" operator="beginsWith" text="null">
+    <cfRule type="beginsWith" dxfId="3" priority="3" operator="beginsWith" text="null">
       <formula>LEFT(C2,4)="null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E3 C2:G2">
-    <cfRule type="beginsWith" dxfId="1" priority="2" operator="beginsWith" text="null">
+    <cfRule type="beginsWith" dxfId="2" priority="2" operator="beginsWith" text="null">
       <formula>LEFT(C2,4)="null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G37 A38">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11115,117 +11131,117 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8 E10">
-    <cfRule type="cellIs" dxfId="701" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="700" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="699" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="698" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="697" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 E9">
-    <cfRule type="cellIs" dxfId="696" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="695" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="694" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="693" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="692" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="691" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 E16">
-    <cfRule type="cellIs" dxfId="690" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 E18">
-    <cfRule type="cellIs" dxfId="689" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:H19">
-    <cfRule type="cellIs" dxfId="688" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="687" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 E21">
-    <cfRule type="cellIs" dxfId="686" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="685" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="684" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="683" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="682" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H26">
-    <cfRule type="cellIs" dxfId="681" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="680" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26">
-    <cfRule type="cellIs" dxfId="679" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13949,612 +13965,612 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E11:E13 H11:H13 E15 H8:H9 E8:E9">
-    <cfRule type="cellIs" dxfId="678" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="143" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="677" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="142" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="676" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="141" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="675" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="140" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:D8 F8:G8">
-    <cfRule type="cellIs" dxfId="674" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="139" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:D16 F16:G16">
-    <cfRule type="cellIs" dxfId="673" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="133" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="672" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="132" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="671" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="131" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="670" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="130" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="669" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="129" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="668" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="128" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="667" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="127" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="666" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="126" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="665" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="123" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="664" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="122" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="663" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="121" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 H10">
-    <cfRule type="cellIs" dxfId="662" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="120" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="661" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="119" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="660" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="118" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="659" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="117" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="658" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:D27 F27:G27">
-    <cfRule type="cellIs" dxfId="657" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="115" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="656" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="114" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="655" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="113" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="654" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="112" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="653" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="111" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="652" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="110" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="651" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="109" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="650" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="108" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="649" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="107" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="648" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="106" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49 H49">
-    <cfRule type="cellIs" dxfId="647" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44 H44">
-    <cfRule type="cellIs" dxfId="646" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92 F92:G92">
-    <cfRule type="cellIs" dxfId="645" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="103" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="644" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="102" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54 H54">
-    <cfRule type="cellIs" dxfId="643" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="642" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="96" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="641" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="100" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="640" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="99" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="639" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="98" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="638" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="97" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59 H59">
-    <cfRule type="cellIs" dxfId="637" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="636" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="635" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="94" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="634" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="633" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="92" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="632" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="91" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="631" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="630" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="88" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="629" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="628" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="627" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64 H64">
-    <cfRule type="cellIs" dxfId="626" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="625" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="624" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="623" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="80" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="622" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="621" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="76" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="cellIs" dxfId="620" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="cellIs" dxfId="619" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="618" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="617" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="64" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:D106 F106:G106">
-    <cfRule type="cellIs" dxfId="616" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:E115">
-    <cfRule type="cellIs" dxfId="615" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66 E92:E101">
-    <cfRule type="cellIs" dxfId="614" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:H98">
-    <cfRule type="cellIs" dxfId="613" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H112">
-    <cfRule type="cellIs" dxfId="612" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H115">
-    <cfRule type="cellIs" dxfId="611" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="610" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="609" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="608" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="cellIs" dxfId="607" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="606" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="605" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="604" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="603" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="602" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74 H74">
-    <cfRule type="cellIs" dxfId="601" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69 H69">
-    <cfRule type="cellIs" dxfId="600" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79 H79">
-    <cfRule type="cellIs" dxfId="599" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="598" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="597" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="596" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="595" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="594" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84 H84">
-    <cfRule type="cellIs" dxfId="593" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="592" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="591" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="590" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="589" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="588" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="587" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="586" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="585" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="584" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="583" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89 H89">
-    <cfRule type="cellIs" dxfId="582" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="581" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="580" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="579" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="578" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="577" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="576" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="575" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="574" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="573" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="572" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="571" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="570" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="569" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="568" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="567" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="566" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="565" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="564" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32 H32">
-    <cfRule type="cellIs" dxfId="563" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="562" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="561" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="560" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="559" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="558" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 H37">
-    <cfRule type="cellIs" dxfId="557" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14908,62 +14924,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="556" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="555" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="554" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="553" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 E9">
-    <cfRule type="cellIs" dxfId="552" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="551" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="550" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="549" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="548" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12 E12">
-    <cfRule type="cellIs" dxfId="547" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="546" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="545" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16007,217 +16023,217 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E10 E8">
-    <cfRule type="cellIs" dxfId="544" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="543" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="542" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="541" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="540" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14 E23 E16">
-    <cfRule type="cellIs" dxfId="539" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23 H16 H20 H27:H28 H30 H14 H8:H10 H33 H25">
-    <cfRule type="cellIs" dxfId="538" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25 E27:E28 E30 E33">
-    <cfRule type="cellIs" dxfId="537" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31 E31">
-    <cfRule type="cellIs" dxfId="536" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 E26">
-    <cfRule type="cellIs" dxfId="535" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18 E17:E18">
-    <cfRule type="cellIs" dxfId="534" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 E22">
-    <cfRule type="cellIs" dxfId="533" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 E21">
-    <cfRule type="cellIs" dxfId="532" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="531" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="530" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29 E29">
-    <cfRule type="cellIs" dxfId="529" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="528" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="527" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="526" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="525" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="524" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="523" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 E24">
-    <cfRule type="cellIs" dxfId="522" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" dxfId="521" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="520" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="519" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:H32">
-    <cfRule type="cellIs" dxfId="518" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D39 D43">
-    <cfRule type="cellIs" dxfId="517" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F39 F43">
-    <cfRule type="cellIs" dxfId="516" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:H39 H41 H43">
-    <cfRule type="cellIs" dxfId="515" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="514" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="513" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="512" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="511" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="510" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="509" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="508" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="507" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40:H40">
-    <cfRule type="cellIs" dxfId="506" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42 E42">
-    <cfRule type="cellIs" dxfId="505" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="504" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44 E44">
-    <cfRule type="cellIs" dxfId="503" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="502" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16229,7 +16245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView topLeftCell="A205" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
@@ -21561,1107 +21577,1107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E127:E128 H127:H128 E114:E115 H114:H115 E101:E102 H101:H102 E88:E89 H88:H89">
-    <cfRule type="cellIs" dxfId="501" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="245" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="500" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="244" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="499" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="243" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="498" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="242" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="497" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="241" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="496" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="240" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="495" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="239" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="494" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="238" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="493" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="237" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="492" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="236" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="491" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="235" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="490" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="234" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15 E17">
-    <cfRule type="cellIs" dxfId="489" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="231" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 D17">
-    <cfRule type="cellIs" dxfId="488" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="230" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="487" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="229" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="486" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="228" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20 E22">
-    <cfRule type="cellIs" dxfId="485" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="227" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20 D22">
-    <cfRule type="cellIs" dxfId="484" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="226" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="483" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="225" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="482" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="224" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E25 E27">
-    <cfRule type="cellIs" dxfId="481" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="223" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 D27">
-    <cfRule type="cellIs" dxfId="480" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="222" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="479" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="221" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="478" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="220" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E30 E32">
-    <cfRule type="cellIs" dxfId="477" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="219" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30 D32">
-    <cfRule type="cellIs" dxfId="476" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="218" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="475" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="217" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="474" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="216" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E35 E37">
-    <cfRule type="cellIs" dxfId="473" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="215" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35 D37">
-    <cfRule type="cellIs" dxfId="472" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="214" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="471" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="213" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="470" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="212" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:E70">
-    <cfRule type="cellIs" dxfId="469" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="204" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:H63">
-    <cfRule type="cellIs" dxfId="468" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="207" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="467" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="206" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H70">
-    <cfRule type="cellIs" dxfId="466" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="205" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="465" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="202" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="464" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="203" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E81">
-    <cfRule type="cellIs" dxfId="463" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="200" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H81">
-    <cfRule type="cellIs" dxfId="462" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="201" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E76">
-    <cfRule type="cellIs" dxfId="461" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="198" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H76">
-    <cfRule type="cellIs" dxfId="460" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="199" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:E78">
-    <cfRule type="cellIs" dxfId="459" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="196" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77:H78">
-    <cfRule type="cellIs" dxfId="458" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="197" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="457" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="194" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="456" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="195" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="455" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="193" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="454" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="192" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="453" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="190" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="452" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="191" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="451" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="187" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="450" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="189" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="449" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="188" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93:E94">
-    <cfRule type="cellIs" dxfId="448" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="183" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93:H94">
-    <cfRule type="cellIs" dxfId="447" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="184" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E91">
-    <cfRule type="cellIs" dxfId="446" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="179" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H91">
-    <cfRule type="cellIs" dxfId="445" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="180" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="444" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="177" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="443" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="178" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="442" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="176" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="441" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="175" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="440" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="173" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="439" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="174" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="438" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="170" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="437" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="172" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="cellIs" dxfId="436" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="171" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106:E107">
-    <cfRule type="cellIs" dxfId="435" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="166" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:H107">
-    <cfRule type="cellIs" dxfId="434" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="167" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103:E104">
-    <cfRule type="cellIs" dxfId="433" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="162" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H104">
-    <cfRule type="cellIs" dxfId="432" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="163" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="431" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="160" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="430" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="161" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="429" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="159" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="cellIs" dxfId="428" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="158" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="427" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="156" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="426" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="157" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="425" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="153" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="424" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="155" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="cellIs" dxfId="423" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="154" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119:E120">
-    <cfRule type="cellIs" dxfId="422" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="149" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119:H120">
-    <cfRule type="cellIs" dxfId="421" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="150" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116:E117">
-    <cfRule type="cellIs" dxfId="420" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="145" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116:H117">
-    <cfRule type="cellIs" dxfId="419" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="146" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="418" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="143" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="417" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="144" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="416" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="142" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="415" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="141" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="414" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="139" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="413" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="140" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="412" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="136" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="411" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="138" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="cellIs" dxfId="410" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="137" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132:E133">
-    <cfRule type="cellIs" dxfId="409" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="132" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H133">
-    <cfRule type="cellIs" dxfId="408" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="133" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129:E130">
-    <cfRule type="cellIs" dxfId="407" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="128" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:H130">
-    <cfRule type="cellIs" dxfId="406" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="129" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="405" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="126" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="404" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="127" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="403" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="125" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="cellIs" dxfId="402" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="124" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="401" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="122" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="400" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="123" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E141 H140:H141">
-    <cfRule type="cellIs" dxfId="399" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="121" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="398" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="118" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="397" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="120" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139">
-    <cfRule type="cellIs" dxfId="396" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="119" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E146">
-    <cfRule type="cellIs" dxfId="395" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="116" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145:H146">
-    <cfRule type="cellIs" dxfId="394" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="117" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142:E143">
-    <cfRule type="cellIs" dxfId="393" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="114" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142:H143">
-    <cfRule type="cellIs" dxfId="392" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="115" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="cellIs" dxfId="391" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="112" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148">
-    <cfRule type="cellIs" dxfId="390" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="113" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="389" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="111" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="cellIs" dxfId="388" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="110" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="387" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="108" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="cellIs" dxfId="386" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="109" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E153:E154 H153:H154">
-    <cfRule type="cellIs" dxfId="385" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="107" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="384" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="383" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="106" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="382" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:E159">
-    <cfRule type="cellIs" dxfId="381" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="102" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158:H159">
-    <cfRule type="cellIs" dxfId="380" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="103" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155:E156">
-    <cfRule type="cellIs" dxfId="379" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="100" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155:H156">
-    <cfRule type="cellIs" dxfId="378" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="101" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="377" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="98" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
-    <cfRule type="cellIs" dxfId="376" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="99" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="cellIs" dxfId="375" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="97" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="cellIs" dxfId="374" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="96" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="373" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="94" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H163">
-    <cfRule type="cellIs" dxfId="372" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166:E167 H166:H167">
-    <cfRule type="cellIs" dxfId="371" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="cellIs" dxfId="370" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="369" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="92" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H165">
-    <cfRule type="cellIs" dxfId="368" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="91" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E172">
-    <cfRule type="cellIs" dxfId="367" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="88" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H172">
-    <cfRule type="cellIs" dxfId="366" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E169">
-    <cfRule type="cellIs" dxfId="365" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H169">
-    <cfRule type="cellIs" dxfId="364" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="363" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H174">
-    <cfRule type="cellIs" dxfId="362" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175">
-    <cfRule type="cellIs" dxfId="361" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="360" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="359" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="80" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176">
-    <cfRule type="cellIs" dxfId="358" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179:E180 H179:H180">
-    <cfRule type="cellIs" dxfId="357" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="356" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="76" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E177">
-    <cfRule type="cellIs" dxfId="355" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178">
-    <cfRule type="cellIs" dxfId="354" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E184:E185">
-    <cfRule type="cellIs" dxfId="353" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="74" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H184:H185">
-    <cfRule type="cellIs" dxfId="352" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="75" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181:E182">
-    <cfRule type="cellIs" dxfId="351" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H181:H182">
-    <cfRule type="cellIs" dxfId="350" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="73" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E187">
-    <cfRule type="cellIs" dxfId="349" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="cellIs" dxfId="348" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="cellIs" dxfId="347" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188">
-    <cfRule type="cellIs" dxfId="346" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E189">
-    <cfRule type="cellIs" dxfId="345" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="344" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E192:E193 H192:H193">
-    <cfRule type="cellIs" dxfId="343" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E191">
-    <cfRule type="cellIs" dxfId="342" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="341" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="64" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="cellIs" dxfId="340" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197:E198">
-    <cfRule type="cellIs" dxfId="339" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H197:H198">
-    <cfRule type="cellIs" dxfId="338" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194:E195">
-    <cfRule type="cellIs" dxfId="337" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H194:H195">
-    <cfRule type="cellIs" dxfId="336" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200">
-    <cfRule type="cellIs" dxfId="335" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="334" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E201">
-    <cfRule type="cellIs" dxfId="333" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D201">
-    <cfRule type="cellIs" dxfId="332" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E202">
-    <cfRule type="cellIs" dxfId="331" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H202">
-    <cfRule type="cellIs" dxfId="330" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E40 E42">
-    <cfRule type="cellIs" dxfId="329" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40 D42">
-    <cfRule type="cellIs" dxfId="328" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="327" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="326" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E45 E47">
-    <cfRule type="cellIs" dxfId="325" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45 D47">
-    <cfRule type="cellIs" dxfId="324" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="323" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="322" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E50 E52">
-    <cfRule type="cellIs" dxfId="321" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50 D52">
-    <cfRule type="cellIs" dxfId="320" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="319" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="318" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E55 E57">
-    <cfRule type="cellIs" dxfId="317" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55 D57">
-    <cfRule type="cellIs" dxfId="316" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="315" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="314" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E60 E62">
-    <cfRule type="cellIs" dxfId="313" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60 D62">
-    <cfRule type="cellIs" dxfId="312" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="311" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="310" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203">
-    <cfRule type="cellIs" dxfId="309" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H204">
-    <cfRule type="cellIs" dxfId="308" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204">
-    <cfRule type="cellIs" dxfId="307" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E205">
-    <cfRule type="cellIs" dxfId="306" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E206:E210">
-    <cfRule type="cellIs" dxfId="305" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H206:H210">
-    <cfRule type="cellIs" dxfId="304" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E212">
-    <cfRule type="cellIs" dxfId="303" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H212">
-    <cfRule type="cellIs" dxfId="302" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E214:E216">
-    <cfRule type="cellIs" dxfId="301" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214:H216">
-    <cfRule type="cellIs" dxfId="300" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217:E218">
-    <cfRule type="cellIs" dxfId="299" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H217:H218">
-    <cfRule type="cellIs" dxfId="298" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E220">
-    <cfRule type="cellIs" dxfId="297" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="296" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E221">
-    <cfRule type="cellIs" dxfId="295" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D221">
-    <cfRule type="cellIs" dxfId="294" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E222">
-    <cfRule type="cellIs" dxfId="293" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H222">
-    <cfRule type="cellIs" dxfId="292" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E223">
-    <cfRule type="cellIs" dxfId="291" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E224">
-    <cfRule type="cellIs" dxfId="290" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H224">
-    <cfRule type="cellIs" dxfId="289" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230">
-    <cfRule type="cellIs" dxfId="288" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D230">
-    <cfRule type="cellIs" dxfId="287" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E229">
-    <cfRule type="cellIs" dxfId="286" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H229">
-    <cfRule type="cellIs" dxfId="285" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H231">
-    <cfRule type="cellIs" dxfId="284" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E231">
-    <cfRule type="cellIs" dxfId="283" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E225:E227">
-    <cfRule type="cellIs" dxfId="282" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225:H227">
-    <cfRule type="cellIs" dxfId="281" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24717,397 +24733,397 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E43:E44 H43:H44 E49:E52 H49:H51 E54:E56 H54:H55 H46 E46">
-    <cfRule type="cellIs" dxfId="280" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="279" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="278" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="277" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="276" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="80" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="275" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="274" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="273" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="272" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="76" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="271" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="75" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="270" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="74" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="269" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="73" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="268" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="267" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="266" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="265" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="264" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="263" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="262" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="261" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="260" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="259" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="258" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="257" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="256" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E19 E21:E22">
-    <cfRule type="cellIs" dxfId="255" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H24">
-    <cfRule type="cellIs" dxfId="254" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="253" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="252" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="251" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="cellIs" dxfId="250" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E36">
-    <cfRule type="cellIs" dxfId="249" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38">
-    <cfRule type="cellIs" dxfId="248" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="247" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="246" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:H39">
-    <cfRule type="cellIs" dxfId="245" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="244" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="243" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="242" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="241" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="240" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="239" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:H58">
-    <cfRule type="cellIs" dxfId="238" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="237" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="236" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:H59">
-    <cfRule type="cellIs" dxfId="235" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E64 H63:H64 E66:E67 H66:H67 H69:H70 E69:E70">
-    <cfRule type="cellIs" dxfId="234" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="233" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="232" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="231" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="230" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="229" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="228" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="227" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="226" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="225" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="224" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:H73">
-    <cfRule type="cellIs" dxfId="223" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="222" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="221" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="220" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:E78">
-    <cfRule type="cellIs" dxfId="219" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="218" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="217" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="216" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="215" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="214" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="213" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="212" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="211" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="210" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="209" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="208" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="206" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="205" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="204" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="203" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="202" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27741,512 +27757,512 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="201" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="106" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="200" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="199" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="198" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="103" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="197" priority="101" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="199" priority="101" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="196" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="100" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C12 C14">
-    <cfRule type="containsText" dxfId="195" priority="99" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="197" priority="99" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E13">
-    <cfRule type="cellIs" dxfId="194" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="98" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="193" priority="97" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="195" priority="97" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="192" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="96" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:E15">
-    <cfRule type="cellIs" dxfId="191" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="190" priority="94" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="192" priority="94" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="189" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="188" priority="92" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="190" priority="92" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="187" priority="91" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="189" priority="91" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="186" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:H18">
-    <cfRule type="cellIs" dxfId="185" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="cellIs" dxfId="184" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="88" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F21">
-    <cfRule type="cellIs" dxfId="183" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22">
-    <cfRule type="cellIs" dxfId="182" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23 E23">
-    <cfRule type="cellIs" dxfId="181" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:H24">
-    <cfRule type="cellIs" dxfId="180" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C32">
-    <cfRule type="containsText" dxfId="179" priority="83" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="181" priority="83" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:F32">
-    <cfRule type="cellIs" dxfId="178" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="177" priority="79" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="179" priority="79" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:E34">
-    <cfRule type="cellIs" dxfId="176" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48">
-    <cfRule type="cellIs" dxfId="175" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="174" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="173" priority="76" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="175" priority="76" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" dxfId="172" priority="75" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="174" priority="75" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:E35">
-    <cfRule type="cellIs" dxfId="171" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="74" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C42">
-    <cfRule type="containsText" dxfId="170" priority="73" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="172" priority="73" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:F42">
-    <cfRule type="cellIs" dxfId="169" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:H43">
-    <cfRule type="cellIs" dxfId="168" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47 C49">
-    <cfRule type="containsText" dxfId="167" priority="69" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="169" priority="69" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:F47 D49:F49">
-    <cfRule type="cellIs" dxfId="166" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:H50">
-    <cfRule type="cellIs" dxfId="165" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C53">
-    <cfRule type="containsText" dxfId="164" priority="66" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="166" priority="66" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:F53">
-    <cfRule type="cellIs" dxfId="163" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="containsText" dxfId="162" priority="64" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="164" priority="64" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:F54">
-    <cfRule type="cellIs" dxfId="161" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H57 E56:E57">
-    <cfRule type="cellIs" dxfId="160" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44 E44">
-    <cfRule type="cellIs" dxfId="159" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25 E25">
-    <cfRule type="cellIs" dxfId="158" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:H59">
-    <cfRule type="cellIs" dxfId="157" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="containsText" dxfId="156" priority="58" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="158" priority="58" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51 E51">
-    <cfRule type="cellIs" dxfId="155" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:F65">
-    <cfRule type="cellIs" dxfId="154" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 E60">
-    <cfRule type="cellIs" dxfId="153" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C62">
-    <cfRule type="containsText" dxfId="152" priority="55" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="154" priority="55" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:F64">
-    <cfRule type="cellIs" dxfId="151" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="containsText" dxfId="150" priority="53" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="152" priority="53" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="containsText" dxfId="149" priority="51" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="151" priority="51" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67 E67">
-    <cfRule type="cellIs" dxfId="148" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:H68">
-    <cfRule type="cellIs" dxfId="147" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C71 C73">
-    <cfRule type="containsText" dxfId="146" priority="48" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="148" priority="48" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:F71 D73:F73">
-    <cfRule type="cellIs" dxfId="145" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75 E75">
-    <cfRule type="cellIs" dxfId="144" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:H76">
-    <cfRule type="cellIs" dxfId="143" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:F78">
-    <cfRule type="cellIs" dxfId="142" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:F80">
-    <cfRule type="cellIs" dxfId="141" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C78 C80">
-    <cfRule type="containsText" dxfId="140" priority="41" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="142" priority="41" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82 E82">
-    <cfRule type="cellIs" dxfId="139" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:H83">
-    <cfRule type="cellIs" dxfId="138" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:F85">
-    <cfRule type="cellIs" dxfId="137" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="containsText" dxfId="136" priority="37" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="138" priority="37" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:F84">
-    <cfRule type="cellIs" dxfId="135" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84">
-    <cfRule type="containsText" dxfId="134" priority="35" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="136" priority="35" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87 E87">
-    <cfRule type="cellIs" dxfId="133" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:H88">
-    <cfRule type="cellIs" dxfId="132" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89:F90">
-    <cfRule type="cellIs" dxfId="131" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="130" priority="31" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="132" priority="31" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:F91">
-    <cfRule type="cellIs" dxfId="129" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="128" priority="29" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="130" priority="29" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93 E93">
-    <cfRule type="cellIs" dxfId="127" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:H94">
-    <cfRule type="cellIs" dxfId="126" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:F96">
-    <cfRule type="cellIs" dxfId="125" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="containsText" dxfId="124" priority="25" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="126" priority="25" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="containsText" dxfId="123" priority="24" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="125" priority="24" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:F95">
-    <cfRule type="cellIs" dxfId="122" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:F72">
-    <cfRule type="cellIs" dxfId="121" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="120" priority="21" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="122" priority="21" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:F79">
-    <cfRule type="cellIs" dxfId="119" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="containsText" dxfId="118" priority="19" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="120" priority="19" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98 E98">
-    <cfRule type="cellIs" dxfId="117" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:H99">
-    <cfRule type="cellIs" dxfId="116" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:F101">
-    <cfRule type="cellIs" dxfId="115" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:C101">
-    <cfRule type="containsText" dxfId="114" priority="15" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="116" priority="15" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102:F102">
-    <cfRule type="cellIs" dxfId="113" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="112" priority="13" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="114" priority="13" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:H104">
-    <cfRule type="cellIs" dxfId="111" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:F107">
-    <cfRule type="cellIs" dxfId="110" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="containsText" dxfId="109" priority="10" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="111" priority="10" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:F106">
-    <cfRule type="cellIs" dxfId="108" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="containsText" dxfId="107" priority="8" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="109" priority="8" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105 E105">
-    <cfRule type="cellIs" dxfId="106" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:H109">
-    <cfRule type="cellIs" dxfId="105" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110:F111">
-    <cfRule type="cellIs" dxfId="104" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113:F113">
-    <cfRule type="cellIs" dxfId="103" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:C111 C113">
-    <cfRule type="containsText" dxfId="102" priority="3" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112:F112">
-    <cfRule type="cellIs" dxfId="101" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="containsText" dxfId="100" priority="1" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="102" priority="1" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C112)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28257,10 +28273,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -28438,35 +28454,35 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>585</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
+    <row r="8" spans="1:8" s="1" customFormat="1">
+      <c r="B8" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>586</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="F8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="B9" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -28478,7 +28494,7 @@
         <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -28486,13 +28502,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="B10" t="s">
-        <v>105</v>
+        <v>587</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>229</v>
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>12</v>
@@ -28500,31 +28516,31 @@
       <c r="F10" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="G10" t="s">
+        <v>588</v>
+      </c>
+      <c r="H10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="B11" t="s">
-        <v>589</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>272</v>
+        <v>49</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G11" t="s">
-        <v>588</v>
+        <v>103</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H11" s="9" t="s">
         <v>12</v>
@@ -28532,13 +28548,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="B12" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C12" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>12</v>
@@ -28547,7 +28563,7 @@
         <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>12</v>
@@ -28555,13 +28571,13 @@
     </row>
     <row r="13" spans="1:8">
       <c r="B13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C13" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>239</v>
+        <v>125</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>12</v>
@@ -28570,56 +28586,56 @@
         <v>108</v>
       </c>
       <c r="G13" t="s">
+        <v>590</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>595</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
         <v>591</v>
       </c>
-      <c r="H13" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
+      <c r="H14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
         <v>598</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>596</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
         <v>592</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>597</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>599</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G15" t="s">
-        <v>593</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>12</v>
@@ -28627,13 +28643,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="B16" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>12</v>
+        <v>599</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>12</v>
@@ -28642,7 +28658,7 @@
         <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="H16" s="9" t="s">
         <v>12</v>
@@ -28650,13 +28666,13 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" t="s">
-        <v>105</v>
+        <v>601</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>229</v>
+        <v>12</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>12</v>
@@ -28664,8 +28680,8 @@
       <c r="F17" t="s">
         <v>103</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>12</v>
+      <c r="G17" t="s">
+        <v>602</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>12</v>
@@ -28673,13 +28689,13 @@
     </row>
     <row r="18" spans="2:8">
       <c r="B18" t="s">
-        <v>603</v>
+        <v>105</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>12</v>
@@ -28687,22 +28703,22 @@
       <c r="F18" t="s">
         <v>103</v>
       </c>
-      <c r="G18" t="s">
-        <v>604</v>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" t="s">
-        <v>105</v>
+        <v>603</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>12</v>
@@ -28710,24 +28726,24 @@
       <c r="F19" t="s">
         <v>103</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>12</v>
+      <c r="G19" t="s">
+        <v>604</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" t="s">
-        <v>605</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>606</v>
+        <v>49</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F20" t="s">
@@ -28742,15 +28758,15 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" t="s">
-        <v>105</v>
+        <v>605</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>606</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="E21" t="s">
         <v>12</v>
       </c>
       <c r="F21" t="s">
@@ -28765,19 +28781,19 @@
     </row>
     <row r="22" spans="2:8">
       <c r="B22" t="s">
-        <v>616</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>608</v>
+        <v>49</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>239</v>
+        <v>135</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>12</v>
@@ -28786,41 +28802,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" t="s">
-        <v>617</v>
-      </c>
-      <c r="C23" t="s">
-        <v>608</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F23" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="9" t="s">
+    <row r="23" spans="2:8" s="1" customFormat="1">
+      <c r="B23" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="B24" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C24" t="s">
         <v>608</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="F24" t="s">
         <v>108</v>
@@ -28834,16 +28850,16 @@
     </row>
     <row r="25" spans="2:8">
       <c r="B25" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C25" t="s">
         <v>608</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="E25" t="s">
-        <v>142</v>
+        <v>610</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="F25" t="s">
         <v>108</v>
@@ -28857,16 +28873,16 @@
     </row>
     <row r="26" spans="2:8">
       <c r="B26" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C26" t="s">
         <v>608</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="E26" t="s">
-        <v>144</v>
+        <v>611</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="F26" t="s">
         <v>108</v>
@@ -28880,19 +28896,19 @@
     </row>
     <row r="27" spans="2:8">
       <c r="B27" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C27" t="s">
         <v>608</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>615</v>
+        <v>613</v>
+      </c>
+      <c r="E27" t="s">
+        <v>142</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G27" s="9" t="s">
         <v>12</v>
@@ -28903,16 +28919,16 @@
     </row>
     <row r="28" spans="2:8">
       <c r="B28" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C28" t="s">
         <v>608</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>628</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>239</v>
+        <v>612</v>
+      </c>
+      <c r="E28" t="s">
+        <v>144</v>
       </c>
       <c r="F28" t="s">
         <v>108</v>
@@ -28926,19 +28942,19 @@
     </row>
     <row r="29" spans="2:8">
       <c r="B29" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="C29" t="s">
         <v>608</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>272</v>
+        <v>615</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G29" s="9" t="s">
         <v>12</v>
@@ -28949,16 +28965,16 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C30" t="s">
         <v>608</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>125</v>
+        <v>239</v>
       </c>
       <c r="F30" t="s">
         <v>108</v>
@@ -28972,16 +28988,16 @@
     </row>
     <row r="31" spans="2:8">
       <c r="B31" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C31" t="s">
         <v>608</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>631</v>
-      </c>
-      <c r="E31" t="s">
-        <v>390</v>
+        <v>629</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="F31" t="s">
         <v>108</v>
@@ -28995,16 +29011,16 @@
     </row>
     <row r="32" spans="2:8">
       <c r="B32" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C32" t="s">
         <v>608</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="E32" t="s">
-        <v>394</v>
+        <v>630</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>125</v>
       </c>
       <c r="F32" t="s">
         <v>108</v>
@@ -29018,19 +29034,19 @@
     </row>
     <row r="33" spans="1:8">
       <c r="B33" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C33" t="s">
         <v>608</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>634</v>
+        <v>631</v>
+      </c>
+      <c r="E33" t="s">
+        <v>390</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>12</v>
@@ -29041,19 +29057,19 @@
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="C34" t="s">
         <v>608</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>431</v>
+        <v>632</v>
+      </c>
+      <c r="E34" t="s">
+        <v>394</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G34" s="9" t="s">
         <v>12</v>
@@ -29064,16 +29080,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C35" t="s">
         <v>608</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>638</v>
-      </c>
-      <c r="E35" t="s">
-        <v>331</v>
+        <v>633</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>634</v>
       </c>
       <c r="F35" t="s">
         <v>103</v>
@@ -29087,16 +29103,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C36" t="s">
         <v>608</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>640</v>
-      </c>
-      <c r="E36" t="s">
-        <v>442</v>
+        <v>635</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>431</v>
       </c>
       <c r="F36" t="s">
         <v>103</v>
@@ -29110,19 +29126,19 @@
     </row>
     <row r="37" spans="1:8">
       <c r="B37" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C37" t="s">
         <v>608</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E37" t="s">
-        <v>153</v>
+        <v>331</v>
       </c>
       <c r="F37" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G37" s="9" t="s">
         <v>12</v>
@@ -29139,10 +29155,10 @@
         <v>608</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="E38" t="s">
-        <v>521</v>
+        <v>442</v>
       </c>
       <c r="F38" t="s">
         <v>103</v>
@@ -29155,18 +29171,17 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="11"/>
       <c r="B39" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C39" t="s">
         <v>608</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F39" t="s">
         <v>108</v>
@@ -29179,21 +29194,20 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="11"/>
       <c r="B40" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C40" t="s">
         <v>608</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="E40" t="s">
-        <v>362</v>
+        <v>521</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G40" s="9" t="s">
         <v>12</v>
@@ -29205,16 +29219,16 @@
     <row r="41" spans="1:8">
       <c r="A41" s="11"/>
       <c r="B41" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C41" t="s">
         <v>608</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E41" t="s">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="F41" t="s">
         <v>108</v>
@@ -29229,16 +29243,16 @@
     <row r="42" spans="1:8">
       <c r="A42" s="11"/>
       <c r="B42" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C42" t="s">
         <v>608</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E42" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F42" t="s">
         <v>108</v>
@@ -29250,124 +29264,182 @@
         <v>12</v>
       </c>
     </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="11"/>
+      <c r="B43" t="s">
+        <v>643</v>
+      </c>
+      <c r="C43" t="s">
+        <v>608</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>647</v>
+      </c>
+      <c r="E43" t="s">
+        <v>364</v>
+      </c>
+      <c r="F43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="11"/>
+      <c r="B44" t="s">
+        <v>644</v>
+      </c>
+      <c r="C44" t="s">
+        <v>608</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="E44" t="s">
+        <v>366</v>
+      </c>
+      <c r="F44" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8:E9 E11:E15 E18 G20:H26">
+  <conditionalFormatting sqref="A2:H2 H6 E4:E6 E9:E10 E12:E16 E19 G21:H22 G24:H28">
+    <cfRule type="cellIs" dxfId="101" priority="34" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="100" priority="33" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
     <cfRule type="cellIs" dxfId="99" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
+  <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" dxfId="98" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
+  <conditionalFormatting sqref="E7 H7">
     <cfRule type="cellIs" dxfId="97" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
+  <conditionalFormatting sqref="H11 E11">
     <cfRule type="cellIs" dxfId="96" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E7 H7">
+  <conditionalFormatting sqref="H12:H16 H19">
     <cfRule type="cellIs" dxfId="95" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10 E10">
+  <conditionalFormatting sqref="G11">
     <cfRule type="cellIs" dxfId="94" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H15 H18">
+  <conditionalFormatting sqref="H17 E17">
     <cfRule type="cellIs" dxfId="93" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="92" priority="25" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16 E16">
-    <cfRule type="cellIs" dxfId="91" priority="24" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17 E17">
+  <conditionalFormatting sqref="H18 E18">
+    <cfRule type="cellIs" dxfId="92" priority="24" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="cellIs" dxfId="91" priority="23" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20 E20">
     <cfRule type="cellIs" dxfId="90" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17">
+  <conditionalFormatting sqref="G20">
     <cfRule type="cellIs" dxfId="89" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19 E19">
+  <conditionalFormatting sqref="E22">
     <cfRule type="cellIs" dxfId="88" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="cellIs" dxfId="87" priority="19" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="86" priority="18" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G27:H27">
+  <conditionalFormatting sqref="G29:H29">
+    <cfRule type="cellIs" dxfId="87" priority="12" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:H34">
+    <cfRule type="cellIs" dxfId="86" priority="11" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:H35">
     <cfRule type="cellIs" dxfId="85" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28:H32">
+  <conditionalFormatting sqref="G36:H36">
     <cfRule type="cellIs" dxfId="84" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:H33">
+  <conditionalFormatting sqref="G41:H41">
     <cfRule type="cellIs" dxfId="83" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G34:H34">
+  <conditionalFormatting sqref="G42:H42">
     <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39:H39">
+  <conditionalFormatting sqref="G43:H43">
     <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40:H40">
+  <conditionalFormatting sqref="G44:H44">
     <cfRule type="cellIs" dxfId="80" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:H41">
+  <conditionalFormatting sqref="G37:G40">
     <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42">
+  <conditionalFormatting sqref="H37:H40">
     <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G35:G38">
+  <conditionalFormatting sqref="A8:H8">
     <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:H38">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+  <conditionalFormatting sqref="A23:H23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="746" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16520" tabRatio="746" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="dummy" sheetId="25" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5887" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="708">
   <si>
     <t>Step#</t>
   </si>
@@ -2221,6 +2221,18 @@
   </si>
   <si>
     <t>Verify edited first name saved correct</t>
+  </si>
+  <si>
+    <t>TEST LABEL: Editing a student</t>
+  </si>
+  <si>
+    <t>Clear first name</t>
+  </si>
+  <si>
+    <t>Student1 Edited</t>
+  </si>
+  <si>
+    <t>Click Update Student to save</t>
   </si>
 </sst>
 </file>
@@ -2370,117 +2382,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="760">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
+  <dxfs count="816">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -2520,6 +2422,396 @@
     <dxf>
       <font>
         <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -7276,152 +7568,152 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6">
-    <cfRule type="cellIs" dxfId="759" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="782" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="758" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="781" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="757" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="780" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="756" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="779" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="755" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="778" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="754" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="777" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="753" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="776" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="752" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="775" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="751" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="774" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="750" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="773" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="749" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="772" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="748" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="771" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E20">
-    <cfRule type="cellIs" dxfId="747" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="770" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:H13">
-    <cfRule type="cellIs" dxfId="746" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="769" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="745" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H20">
-    <cfRule type="cellIs" dxfId="744" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="743" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="742" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31">
-    <cfRule type="cellIs" dxfId="741" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="cellIs" dxfId="740" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="cellIs" dxfId="739" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H26">
-    <cfRule type="cellIs" dxfId="738" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="737" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="cellIs" dxfId="736" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="735" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="734" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="733" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="732" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="731" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="730" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7801,47 +8093,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="101" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="100" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="97" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E13">
-    <cfRule type="cellIs" dxfId="96" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H13">
-    <cfRule type="cellIs" dxfId="95" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14 E14">
-    <cfRule type="cellIs" dxfId="94" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 E15">
-    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9276,312 +9568,312 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6">
-    <cfRule type="cellIs" dxfId="92" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="91" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="90" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="89" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 E9">
-    <cfRule type="cellIs" dxfId="87" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 H10">
-    <cfRule type="cellIs" dxfId="86" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="85" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="84" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="64" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="83" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="82" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="81" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="80" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="79" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="78" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="77" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="76" priority="54" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:H19">
-    <cfRule type="cellIs" dxfId="75" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="74" priority="52" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="52" priority="52" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="73" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="72" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="71" priority="49" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="70" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="69" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28 E28">
-    <cfRule type="cellIs" dxfId="68" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29 H29">
-    <cfRule type="cellIs" dxfId="67" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:H26">
-    <cfRule type="cellIs" dxfId="66" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30 E30">
-    <cfRule type="cellIs" dxfId="65" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="64" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="63" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="62" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="61" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="containsText" dxfId="60" priority="33" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="38" priority="33" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="59" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="58" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="57" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:H38">
-    <cfRule type="cellIs" dxfId="56" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="55" priority="28" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="54" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="53" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="containsText" dxfId="52" priority="25" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="51" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="50" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27 E27">
-    <cfRule type="cellIs" dxfId="49" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 E47">
-    <cfRule type="cellIs" dxfId="48" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48 H48">
-    <cfRule type="cellIs" dxfId="47" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:H45">
-    <cfRule type="cellIs" dxfId="46" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 E49">
-    <cfRule type="cellIs" dxfId="45" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="44" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="43" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="42" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46 E46">
-    <cfRule type="cellIs" dxfId="40" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="38" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="37" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:H56">
-    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10634,27 +10926,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:G1">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E3 D2:G2">
-    <cfRule type="beginsWith" dxfId="28" priority="3" operator="beginsWith" text="null">
+    <cfRule type="beginsWith" dxfId="6" priority="3" operator="beginsWith" text="null">
       <formula>LEFT(C2,4)="null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:E3 C2:G2">
-    <cfRule type="beginsWith" dxfId="27" priority="2" operator="beginsWith" text="null">
+    <cfRule type="beginsWith" dxfId="5" priority="2" operator="beginsWith" text="null">
       <formula>LEFT(C2,4)="null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G37 A38">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10666,7 +10958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
@@ -11490,182 +11782,182 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8 E10">
-    <cfRule type="cellIs" dxfId="729" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="728" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="727" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="726" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="725" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 E9">
-    <cfRule type="cellIs" dxfId="724" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="723" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="722" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="721" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="720" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="719" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 E16">
-    <cfRule type="cellIs" dxfId="718" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 E18">
-    <cfRule type="cellIs" dxfId="717" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:H19">
-    <cfRule type="cellIs" dxfId="716" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="715" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 E21">
-    <cfRule type="cellIs" dxfId="714" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="713" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="712" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="711" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="710" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H26">
-    <cfRule type="cellIs" dxfId="709" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="708" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26">
-    <cfRule type="cellIs" dxfId="707" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:H27">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30 E30">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32 E32">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14389,612 +14681,612 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E11:E13 H11:H13 E15 H8:H9 E8:E9">
-    <cfRule type="cellIs" dxfId="706" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="143" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="705" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="142" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="704" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="141" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="703" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="140" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:D8 F8:G8">
-    <cfRule type="cellIs" dxfId="702" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="139" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:D16 F16:G16">
-    <cfRule type="cellIs" dxfId="701" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="133" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="700" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="132" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="699" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="131" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="698" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="130" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="697" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="129" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="696" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="128" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="695" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="127" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="694" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="126" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="693" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="123" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="692" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="122" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="691" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="121" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 H10">
-    <cfRule type="cellIs" dxfId="690" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="120" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="689" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="119" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="688" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="118" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="687" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="117" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="686" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:D27 F27:G27">
-    <cfRule type="cellIs" dxfId="685" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="115" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="684" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="114" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="683" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="113" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="682" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="112" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="681" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="111" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="680" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="110" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="679" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="109" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="678" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="108" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="677" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="107" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="676" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="106" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49 H49">
-    <cfRule type="cellIs" dxfId="675" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44 H44">
-    <cfRule type="cellIs" dxfId="674" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92 F92:G92">
-    <cfRule type="cellIs" dxfId="673" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="103" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="672" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="102" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54 H54">
-    <cfRule type="cellIs" dxfId="671" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="670" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="96" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="669" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="100" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="668" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="99" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="667" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="98" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="666" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="97" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59 H59">
-    <cfRule type="cellIs" dxfId="665" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="664" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="663" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="94" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="662" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="661" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="92" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="660" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="91" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="659" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="658" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="88" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="657" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="656" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="655" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64 H64">
-    <cfRule type="cellIs" dxfId="654" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="653" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="652" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="651" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="80" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="650" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="649" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="76" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="cellIs" dxfId="648" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="cellIs" dxfId="647" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="646" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="645" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="64" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:D106 F106:G106">
-    <cfRule type="cellIs" dxfId="644" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:E115">
-    <cfRule type="cellIs" dxfId="643" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66 E92:E101">
-    <cfRule type="cellIs" dxfId="642" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:H98">
-    <cfRule type="cellIs" dxfId="641" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H112">
-    <cfRule type="cellIs" dxfId="640" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H115">
-    <cfRule type="cellIs" dxfId="639" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="638" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="637" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="636" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="cellIs" dxfId="635" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="634" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="633" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="632" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="631" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="630" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74 H74">
-    <cfRule type="cellIs" dxfId="629" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69 H69">
-    <cfRule type="cellIs" dxfId="628" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79 H79">
-    <cfRule type="cellIs" dxfId="627" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="626" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="625" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="624" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="623" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="622" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84 H84">
-    <cfRule type="cellIs" dxfId="621" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="620" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="619" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="618" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="617" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="616" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="615" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="614" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="613" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="612" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="611" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89 H89">
-    <cfRule type="cellIs" dxfId="610" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="609" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="608" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="607" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="606" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="605" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="604" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="603" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="602" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="601" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="600" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="599" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="598" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="597" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="596" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="595" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="594" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="593" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="592" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32 H32">
-    <cfRule type="cellIs" dxfId="591" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="590" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="589" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="588" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="587" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="586" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 H37">
-    <cfRule type="cellIs" dxfId="585" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15348,62 +15640,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="584" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="583" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="582" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="581" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 E9">
-    <cfRule type="cellIs" dxfId="580" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="579" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="578" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="577" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:H11">
-    <cfRule type="cellIs" dxfId="576" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12 E12">
-    <cfRule type="cellIs" dxfId="575" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="574" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="573" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15413,10 +15705,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16171,33 +16463,33 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>239</v>
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>239</v>
@@ -16209,7 +16501,7 @@
         <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>107</v>
@@ -16217,30 +16509,30 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>239</v>
       </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="F35" t="s">
-        <v>238</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C36" t="s">
         <v>70</v>
@@ -16248,14 +16540,14 @@
       <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E36" t="s">
-        <v>224</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>103</v>
+      <c r="E36" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" t="s">
+        <v>238</v>
       </c>
       <c r="G36" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>12</v>
@@ -16263,7 +16555,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C37" t="s">
         <v>70</v>
@@ -16272,13 +16564,13 @@
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H37" s="9" t="s">
         <v>12</v>
@@ -16286,7 +16578,7 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C38" t="s">
         <v>70</v>
@@ -16294,14 +16586,14 @@
       <c r="D38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="15" t="s">
-        <v>249</v>
+      <c r="E38" t="s">
+        <v>213</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>103</v>
       </c>
       <c r="G38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>12</v>
@@ -16309,7 +16601,7 @@
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" t="s">
         <v>70</v>
@@ -16317,74 +16609,74 @@
       <c r="D39" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" t="s">
+        <v>217</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
         <v>214</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40" t="s">
         <v>219</v>
       </c>
-      <c r="H39" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C40" s="8" t="s">
+      <c r="H40" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>278</v>
-      </c>
-      <c r="C41" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s">
-        <v>108</v>
-      </c>
-      <c r="G41" t="s">
-        <v>279</v>
-      </c>
-      <c r="H41" s="9" t="s">
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>105</v>
+        <v>705</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>205</v>
+        <v>26</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E42" s="9" t="s">
         <v>12</v>
@@ -16392,8 +16684,8 @@
       <c r="F42" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>12</v>
+      <c r="G42" t="s">
+        <v>215</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>12</v>
@@ -16401,22 +16693,22 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>706</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
         <v>103</v>
       </c>
       <c r="G43" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="H43" s="9" t="s">
         <v>12</v>
@@ -16424,240 +16716,745 @@
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
+        <v>707</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>103</v>
+      </c>
+      <c r="G44" t="s">
+        <v>223</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
         <v>105</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" t="s">
-        <v>103</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="9" t="s">
+      <c r="E45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>236</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>108</v>
+      </c>
+      <c r="G46" t="s">
+        <v>237</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" t="s">
+        <v>706</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" t="s">
+        <v>215</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>705</v>
+      </c>
+      <c r="C48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>707</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" t="s">
+        <v>223</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" t="s">
+        <v>237</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>278</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" t="s">
+        <v>279</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>103</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>280</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" t="s">
+        <v>223</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>103</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E10 E8">
-    <cfRule type="cellIs" dxfId="572" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="571" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="94" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="570" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="569" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="92" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="568" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14 E23 E16">
-    <cfRule type="cellIs" dxfId="567" priority="55" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23 H16 H20 H27:H28 H30 H14 H8:H10 H33 H25">
-    <cfRule type="cellIs" dxfId="566" priority="54" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25 E27:E28 E30 E33">
-    <cfRule type="cellIs" dxfId="565" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="89" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23 H16 H20 H27:H28 H30 H14 H8:H10 H34 H25">
+    <cfRule type="cellIs" dxfId="576" priority="88" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25 E27:E28 E30 E34">
+    <cfRule type="cellIs" dxfId="575" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31 E31">
-    <cfRule type="cellIs" dxfId="564" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 E26">
-    <cfRule type="cellIs" dxfId="563" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18 E17:E18">
-    <cfRule type="cellIs" dxfId="562" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 E22">
-    <cfRule type="cellIs" dxfId="561" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="75" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 E21">
-    <cfRule type="cellIs" dxfId="560" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="559" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="558" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29 E29">
-    <cfRule type="cellIs" dxfId="557" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="556" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="555" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="554" priority="25" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="553" priority="24" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="552" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="551" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="58" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="562" priority="57" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="561" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 E24">
-    <cfRule type="cellIs" dxfId="550" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" dxfId="549" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="548" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="547" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:H32">
-    <cfRule type="cellIs" dxfId="546" priority="17" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35:D39 D43">
-    <cfRule type="cellIs" dxfId="545" priority="16" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F39 F43">
-    <cfRule type="cellIs" dxfId="544" priority="15" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36:H39 H41 H43">
-    <cfRule type="cellIs" dxfId="543" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="51" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:D40 D58 D42">
+    <cfRule type="cellIs" dxfId="555" priority="50" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37:F40 F58">
+    <cfRule type="cellIs" dxfId="554" priority="49" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37:H40 H56 H58">
+    <cfRule type="cellIs" dxfId="553" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="542" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="541" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="540" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="539" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="538" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="537" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="536" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="535" priority="6" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:H40">
-    <cfRule type="cellIs" dxfId="534" priority="5" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42 E42">
-    <cfRule type="cellIs" dxfId="533" priority="4" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="cellIs" dxfId="532" priority="3" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44 E44">
-    <cfRule type="cellIs" dxfId="531" priority="2" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="cellIs" dxfId="530" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="40" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55:H55">
+    <cfRule type="cellIs" dxfId="544" priority="39" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57 E57">
+    <cfRule type="cellIs" dxfId="543" priority="38" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G57">
+    <cfRule type="cellIs" dxfId="542" priority="37" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59 E59">
+    <cfRule type="cellIs" dxfId="541" priority="36" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G59">
+    <cfRule type="cellIs" dxfId="540" priority="35" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:H41">
+    <cfRule type="cellIs" dxfId="539" priority="34" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="536" priority="31" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" dxfId="535" priority="30" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="534" priority="29" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="533" priority="28" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="532" priority="27" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="cellIs" dxfId="531" priority="26" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45 E45">
+    <cfRule type="cellIs" dxfId="530" priority="25" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="cellIs" dxfId="529" priority="24" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="528" priority="23" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="527" priority="22" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="cellIs" dxfId="526" priority="21" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="525" priority="20" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="524" priority="19" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="cellIs" dxfId="523" priority="18" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="522" priority="17" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="cellIs" dxfId="521" priority="16" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="520" priority="15" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="519" priority="14" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="518" priority="13" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="517" priority="12" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51 E51">
+    <cfRule type="cellIs" dxfId="516" priority="11" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G51">
+    <cfRule type="cellIs" dxfId="515" priority="10" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="514" priority="9" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="cellIs" dxfId="513" priority="8" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" dxfId="512" priority="7" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="cellIs" dxfId="511" priority="6" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="510" priority="5" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54 E54">
+    <cfRule type="cellIs" dxfId="509" priority="4" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="cellIs" dxfId="508" priority="3" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22001,1107 +22798,1107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E127:E128 H127:H128 E114:E115 H114:H115 E101:E102 H101:H102 E88:E89 H88:H89">
-    <cfRule type="cellIs" dxfId="529" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="245" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="528" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="244" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="527" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="243" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="526" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="242" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="525" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="241" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="524" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="240" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="523" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="239" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="522" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="238" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="521" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="237" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="520" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="236" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="519" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="235" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="518" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="234" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15 E17">
-    <cfRule type="cellIs" dxfId="517" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="231" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 D17">
-    <cfRule type="cellIs" dxfId="516" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="230" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="515" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="229" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="514" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="228" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20 E22">
-    <cfRule type="cellIs" dxfId="513" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="227" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20 D22">
-    <cfRule type="cellIs" dxfId="512" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="226" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="511" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="225" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="510" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="224" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E25 E27">
-    <cfRule type="cellIs" dxfId="509" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="223" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 D27">
-    <cfRule type="cellIs" dxfId="508" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="222" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="507" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="221" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="506" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="220" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E30 E32">
-    <cfRule type="cellIs" dxfId="505" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="219" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30 D32">
-    <cfRule type="cellIs" dxfId="504" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="218" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="503" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="217" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="502" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="216" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E35 E37">
-    <cfRule type="cellIs" dxfId="501" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="215" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35 D37">
-    <cfRule type="cellIs" dxfId="500" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="214" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="499" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="213" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="498" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="212" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:E70">
-    <cfRule type="cellIs" dxfId="497" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="204" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:H63">
-    <cfRule type="cellIs" dxfId="496" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="207" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="495" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="206" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H70">
-    <cfRule type="cellIs" dxfId="494" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="205" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="493" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="202" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="492" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="203" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E81">
-    <cfRule type="cellIs" dxfId="491" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="200" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H81">
-    <cfRule type="cellIs" dxfId="490" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="201" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E76">
-    <cfRule type="cellIs" dxfId="489" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="198" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H76">
-    <cfRule type="cellIs" dxfId="488" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="199" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:E78">
-    <cfRule type="cellIs" dxfId="487" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="196" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77:H78">
-    <cfRule type="cellIs" dxfId="486" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="197" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="485" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="194" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="484" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="195" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="483" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="193" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="482" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="192" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="481" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="190" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="480" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="191" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="479" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="187" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="478" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="189" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="477" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="188" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93:E94">
-    <cfRule type="cellIs" dxfId="476" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="183" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93:H94">
-    <cfRule type="cellIs" dxfId="475" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="184" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E91">
-    <cfRule type="cellIs" dxfId="474" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="179" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H91">
-    <cfRule type="cellIs" dxfId="473" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="180" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="472" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="177" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="471" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="178" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="470" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="176" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="469" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="175" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="468" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="173" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="467" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="174" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="466" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="170" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="465" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="172" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="cellIs" dxfId="464" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="171" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106:E107">
-    <cfRule type="cellIs" dxfId="463" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="166" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:H107">
-    <cfRule type="cellIs" dxfId="462" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="167" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103:E104">
-    <cfRule type="cellIs" dxfId="461" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="162" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H104">
-    <cfRule type="cellIs" dxfId="460" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="163" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="459" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="160" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="458" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="161" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="457" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="159" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="cellIs" dxfId="456" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="158" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="455" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="156" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="454" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="157" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="453" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="153" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="452" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="155" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="cellIs" dxfId="451" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="154" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119:E120">
-    <cfRule type="cellIs" dxfId="450" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="149" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119:H120">
-    <cfRule type="cellIs" dxfId="449" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="150" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116:E117">
-    <cfRule type="cellIs" dxfId="448" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="145" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116:H117">
-    <cfRule type="cellIs" dxfId="447" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="146" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="446" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="143" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="445" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="144" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="444" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="142" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="443" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="141" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="442" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="139" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="441" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="140" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="440" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="136" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="439" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="138" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="cellIs" dxfId="438" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="137" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132:E133">
-    <cfRule type="cellIs" dxfId="437" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="132" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H133">
-    <cfRule type="cellIs" dxfId="436" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="133" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129:E130">
-    <cfRule type="cellIs" dxfId="435" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="128" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:H130">
-    <cfRule type="cellIs" dxfId="434" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="129" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="433" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="126" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="432" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="127" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="431" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="125" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="cellIs" dxfId="430" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="124" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="429" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="122" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="428" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="123" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E141 H140:H141">
-    <cfRule type="cellIs" dxfId="427" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="121" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="426" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="118" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="425" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="120" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139">
-    <cfRule type="cellIs" dxfId="424" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="119" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E146">
-    <cfRule type="cellIs" dxfId="423" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="116" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145:H146">
-    <cfRule type="cellIs" dxfId="422" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="117" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142:E143">
-    <cfRule type="cellIs" dxfId="421" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="114" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142:H143">
-    <cfRule type="cellIs" dxfId="420" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="115" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="cellIs" dxfId="419" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="112" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148">
-    <cfRule type="cellIs" dxfId="418" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="113" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="417" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="111" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="cellIs" dxfId="416" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="110" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="415" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="108" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="cellIs" dxfId="414" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="109" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E153:E154 H153:H154">
-    <cfRule type="cellIs" dxfId="413" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="107" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="412" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="411" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="106" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="410" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:E159">
-    <cfRule type="cellIs" dxfId="409" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="102" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158:H159">
-    <cfRule type="cellIs" dxfId="408" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="103" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155:E156">
-    <cfRule type="cellIs" dxfId="407" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="100" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155:H156">
-    <cfRule type="cellIs" dxfId="406" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="101" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="405" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="98" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
-    <cfRule type="cellIs" dxfId="404" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="99" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="cellIs" dxfId="403" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="97" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="cellIs" dxfId="402" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="96" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="401" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="94" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H163">
-    <cfRule type="cellIs" dxfId="400" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166:E167 H166:H167">
-    <cfRule type="cellIs" dxfId="399" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="cellIs" dxfId="398" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="397" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="92" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H165">
-    <cfRule type="cellIs" dxfId="396" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="91" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E172">
-    <cfRule type="cellIs" dxfId="395" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="88" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H172">
-    <cfRule type="cellIs" dxfId="394" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E169">
-    <cfRule type="cellIs" dxfId="393" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H169">
-    <cfRule type="cellIs" dxfId="392" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="391" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H174">
-    <cfRule type="cellIs" dxfId="390" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175">
-    <cfRule type="cellIs" dxfId="389" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="388" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="387" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="80" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176">
-    <cfRule type="cellIs" dxfId="386" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179:E180 H179:H180">
-    <cfRule type="cellIs" dxfId="385" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="384" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="76" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E177">
-    <cfRule type="cellIs" dxfId="383" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178">
-    <cfRule type="cellIs" dxfId="382" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E184:E185">
-    <cfRule type="cellIs" dxfId="381" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="74" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H184:H185">
-    <cfRule type="cellIs" dxfId="380" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="75" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181:E182">
-    <cfRule type="cellIs" dxfId="379" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H181:H182">
-    <cfRule type="cellIs" dxfId="378" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="73" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E187">
-    <cfRule type="cellIs" dxfId="377" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="cellIs" dxfId="376" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="cellIs" dxfId="375" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188">
-    <cfRule type="cellIs" dxfId="374" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E189">
-    <cfRule type="cellIs" dxfId="373" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="372" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E192:E193 H192:H193">
-    <cfRule type="cellIs" dxfId="371" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E191">
-    <cfRule type="cellIs" dxfId="370" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="369" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="64" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="cellIs" dxfId="368" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197:E198">
-    <cfRule type="cellIs" dxfId="367" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H197:H198">
-    <cfRule type="cellIs" dxfId="366" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194:E195">
-    <cfRule type="cellIs" dxfId="365" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H194:H195">
-    <cfRule type="cellIs" dxfId="364" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200">
-    <cfRule type="cellIs" dxfId="363" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="362" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E201">
-    <cfRule type="cellIs" dxfId="361" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D201">
-    <cfRule type="cellIs" dxfId="360" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E202">
-    <cfRule type="cellIs" dxfId="359" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H202">
-    <cfRule type="cellIs" dxfId="358" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E40 E42">
-    <cfRule type="cellIs" dxfId="357" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40 D42">
-    <cfRule type="cellIs" dxfId="356" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="355" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="354" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E45 E47">
-    <cfRule type="cellIs" dxfId="353" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45 D47">
-    <cfRule type="cellIs" dxfId="352" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="351" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="350" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E50 E52">
-    <cfRule type="cellIs" dxfId="349" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50 D52">
-    <cfRule type="cellIs" dxfId="348" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="347" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="346" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E55 E57">
-    <cfRule type="cellIs" dxfId="345" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55 D57">
-    <cfRule type="cellIs" dxfId="344" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="343" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="342" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E60 E62">
-    <cfRule type="cellIs" dxfId="341" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60 D62">
-    <cfRule type="cellIs" dxfId="340" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="339" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="338" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203">
-    <cfRule type="cellIs" dxfId="337" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H204">
-    <cfRule type="cellIs" dxfId="336" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204">
-    <cfRule type="cellIs" dxfId="335" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E205">
-    <cfRule type="cellIs" dxfId="334" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E206:E210">
-    <cfRule type="cellIs" dxfId="333" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H206:H210">
-    <cfRule type="cellIs" dxfId="332" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E212">
-    <cfRule type="cellIs" dxfId="331" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H212">
-    <cfRule type="cellIs" dxfId="330" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E214:E216">
-    <cfRule type="cellIs" dxfId="329" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214:H216">
-    <cfRule type="cellIs" dxfId="328" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217:E218">
-    <cfRule type="cellIs" dxfId="327" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H217:H218">
-    <cfRule type="cellIs" dxfId="326" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E220">
-    <cfRule type="cellIs" dxfId="325" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="324" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E221">
-    <cfRule type="cellIs" dxfId="323" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D221">
-    <cfRule type="cellIs" dxfId="322" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E222">
-    <cfRule type="cellIs" dxfId="321" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H222">
-    <cfRule type="cellIs" dxfId="320" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E223">
-    <cfRule type="cellIs" dxfId="319" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E224">
-    <cfRule type="cellIs" dxfId="318" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H224">
-    <cfRule type="cellIs" dxfId="317" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230">
-    <cfRule type="cellIs" dxfId="316" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D230">
-    <cfRule type="cellIs" dxfId="315" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E229">
-    <cfRule type="cellIs" dxfId="314" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H229">
-    <cfRule type="cellIs" dxfId="313" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H231">
-    <cfRule type="cellIs" dxfId="312" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E231">
-    <cfRule type="cellIs" dxfId="311" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E225:E227">
-    <cfRule type="cellIs" dxfId="310" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225:H227">
-    <cfRule type="cellIs" dxfId="309" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25157,397 +25954,397 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E43:E44 H43:H44 E49:E52 H49:H51 E54:E56 H54:H55 H46 E46">
-    <cfRule type="cellIs" dxfId="308" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="307" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="306" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="305" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="304" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="80" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="303" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="302" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="301" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="300" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="76" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="299" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="75" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="298" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="74" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="297" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="73" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="296" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="295" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="294" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="293" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="292" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="291" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="290" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="289" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="288" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="287" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="286" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="285" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="284" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E19 E21:E22">
-    <cfRule type="cellIs" dxfId="283" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H24">
-    <cfRule type="cellIs" dxfId="282" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="281" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="280" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="279" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="cellIs" dxfId="278" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E36">
-    <cfRule type="cellIs" dxfId="277" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38">
-    <cfRule type="cellIs" dxfId="276" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="275" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="274" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:H39">
-    <cfRule type="cellIs" dxfId="273" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="272" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="271" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="270" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="269" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="268" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="267" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:H58">
-    <cfRule type="cellIs" dxfId="266" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="265" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="264" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:H59">
-    <cfRule type="cellIs" dxfId="263" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E64 H63:H64 E66:E67 H66:H67 H69:H70 E69:E70">
-    <cfRule type="cellIs" dxfId="262" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="261" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="260" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="259" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="258" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="257" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="256" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="255" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="254" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="253" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="252" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:H73">
-    <cfRule type="cellIs" dxfId="251" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="250" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="249" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="248" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:E78">
-    <cfRule type="cellIs" dxfId="247" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="246" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="245" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="244" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="243" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="242" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="240" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="239" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="238" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="237" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="236" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="235" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="234" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="233" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="232" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="231" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="230" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28181,512 +28978,512 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="229" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="106" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="228" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="227" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="226" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="103" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="225" priority="101" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="203" priority="101" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="224" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="100" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C12 C14">
-    <cfRule type="containsText" dxfId="223" priority="99" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="201" priority="99" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E13">
-    <cfRule type="cellIs" dxfId="222" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="98" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="221" priority="97" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="199" priority="97" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="220" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="96" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:E15">
-    <cfRule type="cellIs" dxfId="219" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="218" priority="94" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="196" priority="94" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="217" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="216" priority="92" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="194" priority="92" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="215" priority="91" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="193" priority="91" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="214" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:H18">
-    <cfRule type="cellIs" dxfId="213" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="cellIs" dxfId="212" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="88" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F21">
-    <cfRule type="cellIs" dxfId="211" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22">
-    <cfRule type="cellIs" dxfId="210" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23 E23">
-    <cfRule type="cellIs" dxfId="209" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:H24">
-    <cfRule type="cellIs" dxfId="208" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C32">
-    <cfRule type="containsText" dxfId="207" priority="83" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="185" priority="83" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:F32">
-    <cfRule type="cellIs" dxfId="206" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="205" priority="79" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="183" priority="79" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:E34">
-    <cfRule type="cellIs" dxfId="204" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48">
-    <cfRule type="cellIs" dxfId="203" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="202" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="201" priority="76" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="179" priority="76" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" dxfId="200" priority="75" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="178" priority="75" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:E35">
-    <cfRule type="cellIs" dxfId="199" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="74" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C42">
-    <cfRule type="containsText" dxfId="198" priority="73" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="176" priority="73" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:F42">
-    <cfRule type="cellIs" dxfId="197" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:H43">
-    <cfRule type="cellIs" dxfId="196" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47 C49">
-    <cfRule type="containsText" dxfId="195" priority="69" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="173" priority="69" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:F47 D49:F49">
-    <cfRule type="cellIs" dxfId="194" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:H50">
-    <cfRule type="cellIs" dxfId="193" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C53">
-    <cfRule type="containsText" dxfId="192" priority="66" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="170" priority="66" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:F53">
-    <cfRule type="cellIs" dxfId="191" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="containsText" dxfId="190" priority="64" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="168" priority="64" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:F54">
-    <cfRule type="cellIs" dxfId="189" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H57 E56:E57">
-    <cfRule type="cellIs" dxfId="188" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44 E44">
-    <cfRule type="cellIs" dxfId="187" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25 E25">
-    <cfRule type="cellIs" dxfId="186" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:H59">
-    <cfRule type="cellIs" dxfId="185" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="containsText" dxfId="184" priority="58" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="162" priority="58" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51 E51">
-    <cfRule type="cellIs" dxfId="183" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:F65">
-    <cfRule type="cellIs" dxfId="182" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 E60">
-    <cfRule type="cellIs" dxfId="181" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C62">
-    <cfRule type="containsText" dxfId="180" priority="55" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="158" priority="55" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:F64">
-    <cfRule type="cellIs" dxfId="179" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="containsText" dxfId="178" priority="53" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="156" priority="53" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="containsText" dxfId="177" priority="51" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="155" priority="51" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67 E67">
-    <cfRule type="cellIs" dxfId="176" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:H68">
-    <cfRule type="cellIs" dxfId="175" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C71 C73">
-    <cfRule type="containsText" dxfId="174" priority="48" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="152" priority="48" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:F71 D73:F73">
-    <cfRule type="cellIs" dxfId="173" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75 E75">
-    <cfRule type="cellIs" dxfId="172" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:H76">
-    <cfRule type="cellIs" dxfId="171" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:F78">
-    <cfRule type="cellIs" dxfId="170" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:F80">
-    <cfRule type="cellIs" dxfId="169" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C78 C80">
-    <cfRule type="containsText" dxfId="168" priority="41" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="146" priority="41" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82 E82">
-    <cfRule type="cellIs" dxfId="167" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:H83">
-    <cfRule type="cellIs" dxfId="166" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:F85">
-    <cfRule type="cellIs" dxfId="165" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="containsText" dxfId="164" priority="37" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="142" priority="37" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:F84">
-    <cfRule type="cellIs" dxfId="163" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84">
-    <cfRule type="containsText" dxfId="162" priority="35" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="140" priority="35" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87 E87">
-    <cfRule type="cellIs" dxfId="161" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:H88">
-    <cfRule type="cellIs" dxfId="160" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89:F90">
-    <cfRule type="cellIs" dxfId="159" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="158" priority="31" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="136" priority="31" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:F91">
-    <cfRule type="cellIs" dxfId="157" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="156" priority="29" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="134" priority="29" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93 E93">
-    <cfRule type="cellIs" dxfId="155" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:H94">
-    <cfRule type="cellIs" dxfId="154" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:F96">
-    <cfRule type="cellIs" dxfId="153" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="containsText" dxfId="152" priority="25" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="130" priority="25" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="containsText" dxfId="151" priority="24" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="129" priority="24" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:F95">
-    <cfRule type="cellIs" dxfId="150" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:F72">
-    <cfRule type="cellIs" dxfId="149" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="148" priority="21" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="126" priority="21" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:F79">
-    <cfRule type="cellIs" dxfId="147" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="containsText" dxfId="146" priority="19" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="124" priority="19" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98 E98">
-    <cfRule type="cellIs" dxfId="145" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:H99">
-    <cfRule type="cellIs" dxfId="144" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:F101">
-    <cfRule type="cellIs" dxfId="143" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:C101">
-    <cfRule type="containsText" dxfId="142" priority="15" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="120" priority="15" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102:F102">
-    <cfRule type="cellIs" dxfId="141" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="140" priority="13" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="118" priority="13" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:H104">
-    <cfRule type="cellIs" dxfId="139" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:F107">
-    <cfRule type="cellIs" dxfId="138" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="containsText" dxfId="137" priority="10" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="115" priority="10" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:F106">
-    <cfRule type="cellIs" dxfId="136" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="containsText" dxfId="135" priority="8" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="113" priority="8" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105 E105">
-    <cfRule type="cellIs" dxfId="134" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:H109">
-    <cfRule type="cellIs" dxfId="133" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110:F111">
-    <cfRule type="cellIs" dxfId="132" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113:F113">
-    <cfRule type="cellIs" dxfId="131" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:C111 C113">
-    <cfRule type="containsText" dxfId="130" priority="3" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="108" priority="3" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112:F112">
-    <cfRule type="cellIs" dxfId="129" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="containsText" dxfId="128" priority="1" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="106" priority="1" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C112)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29738,132 +30535,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E9:E10 E12:E16 E19 G21:H22 G24:H28">
-    <cfRule type="cellIs" dxfId="127" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="126" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="125" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="124" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="123" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="122" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16 H19">
-    <cfRule type="cellIs" dxfId="121" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="120" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17 E17">
-    <cfRule type="cellIs" dxfId="119" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 E18">
-    <cfRule type="cellIs" dxfId="118" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="117" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20 E20">
-    <cfRule type="cellIs" dxfId="116" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="115" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="114" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H34">
-    <cfRule type="cellIs" dxfId="112" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="cellIs" dxfId="111" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H36">
-    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="cellIs" dxfId="109" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="cellIs" dxfId="108" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="cellIs" dxfId="106" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:G40">
-    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H40">
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:H23">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="28800" windowHeight="16520" tabRatio="746" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16400" tabRatio="746" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="dummy" sheetId="25" r:id="rId1"/>
-    <sheet name="1_Researchers" sheetId="35" r:id="rId2"/>
+    <sheet name="1_UserAdmin" sheetId="35" r:id="rId2"/>
     <sheet name="2_Stories" sheetId="32" r:id="rId3"/>
     <sheet name="3_Classrooms" sheetId="36" r:id="rId4"/>
     <sheet name="4_Students" sheetId="34" r:id="rId5"/>
@@ -23,8 +23,9 @@
     <sheet name="6_UserLogs" sheetId="39" r:id="rId9"/>
     <sheet name="7_OpenEndedAnswers" sheetId="40" r:id="rId10"/>
     <sheet name="8_Clone_DeleteRecords" sheetId="41" r:id="rId11"/>
-    <sheet name="Variables" sheetId="3" r:id="rId12"/>
-    <sheet name="action_kw_ref" sheetId="2" r:id="rId13"/>
+    <sheet name="9_Teachers" sheetId="42" r:id="rId12"/>
+    <sheet name="Variables" sheetId="3" r:id="rId13"/>
+    <sheet name="action_kw_ref" sheetId="2" r:id="rId14"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6076" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6350" uniqueCount="729">
   <si>
     <t>Step#</t>
   </si>
@@ -2269,6 +2270,33 @@
   </si>
   <si>
     <t>Click on the school</t>
+  </si>
+  <si>
+    <t>TEST LABEL: Create user- teacher</t>
+  </si>
+  <si>
+    <t>teacher1@email</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Teacher Edit</t>
+  </si>
+  <si>
+    <t>TEST LABEL: Verify created user - teacher</t>
+  </si>
+  <si>
+    <t>TEST LABEL: Edit user - teacher</t>
+  </si>
+  <si>
+    <t>Select teacher role</t>
+  </si>
+  <si>
+    <t>Select_CreateUser_Role</t>
+  </si>
+  <si>
+    <t>Select admin role</t>
   </si>
 </sst>
 </file>
@@ -2418,7 +2446,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="820">
+  <dxfs count="836">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -2438,6 +2466,86 @@
     <dxf>
       <font>
         <strike/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
       </font>
     </dxf>
     <dxf>
@@ -7624,152 +7732,152 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6">
-    <cfRule type="cellIs" dxfId="798" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="835" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="797" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="834" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="796" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="833" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="795" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="832" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="794" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="831" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="793" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="830" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="792" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="829" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="791" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="828" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="790" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="827" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="789" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="826" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="788" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="825" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="787" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="824" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:E20">
-    <cfRule type="cellIs" dxfId="786" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="823" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:H13">
-    <cfRule type="cellIs" dxfId="785" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="822" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="784" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="821" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:H20">
-    <cfRule type="cellIs" dxfId="783" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="820" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="782" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="819" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="781" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="818" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E31">
-    <cfRule type="cellIs" dxfId="780" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="817" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H31">
-    <cfRule type="cellIs" dxfId="779" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="816" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="cellIs" dxfId="778" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="815" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H26">
-    <cfRule type="cellIs" dxfId="777" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="814" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E28">
-    <cfRule type="cellIs" dxfId="776" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="813" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H28">
-    <cfRule type="cellIs" dxfId="775" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="812" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="774" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="811" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="773" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="810" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="772" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="809" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="cellIs" dxfId="771" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="808" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="770" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="807" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="769" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="806" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8149,47 +8257,47 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="75" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="73" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="71" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E13">
-    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:H13">
-    <cfRule type="cellIs" dxfId="69" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14 E14">
-    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15 E15">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9624,312 +9732,312 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6">
-    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="65" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="64" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="63" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="62" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 E9">
-    <cfRule type="cellIs" dxfId="61" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 H10">
-    <cfRule type="cellIs" dxfId="60" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="59" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="64" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="57" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="56" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="55" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="53" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="87" priority="54" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:H19">
-    <cfRule type="cellIs" dxfId="49" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="containsText" dxfId="48" priority="52" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="85" priority="52" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="45" priority="49" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="82" priority="49" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="44" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28 E28">
-    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29 H29">
-    <cfRule type="cellIs" dxfId="41" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:H26">
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30 E30">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="71" priority="33" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38:H38">
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="66" priority="28" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43">
-    <cfRule type="containsText" dxfId="26" priority="25" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27 E27">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47 E47">
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48 H48">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:H45">
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49 E49">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46 E46">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C55">
-    <cfRule type="containsText" dxfId="13" priority="10" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="50" priority="10" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:H56">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9938,6 +10046,1068 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="14" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>694</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" t="s">
+        <v>693</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>697</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>692</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>722</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G12" t="s">
+        <v>704</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" t="s">
+        <v>705</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>726</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>722</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" t="s">
+        <v>727</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" t="s">
+        <v>706</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="s">
+        <v>707</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>708</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>698</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>693</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>699</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" t="s">
+        <v>235</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>700</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>722</v>
+      </c>
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>704</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>705</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="F28" t="s">
+        <v>238</v>
+      </c>
+      <c r="G28" t="s">
+        <v>706</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>684</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>685</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>704</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" t="s">
+        <v>708</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>701</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" t="s">
+        <v>693</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>699</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
+        <v>235</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>700</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>687</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>723</v>
+      </c>
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
+        <v>704</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8 E10">
+    <cfRule type="cellIs" dxfId="41" priority="37" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="40" priority="36" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="cellIs" dxfId="39" priority="35" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="38" priority="34" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:H7">
+    <cfRule type="cellIs" dxfId="37" priority="33" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9 E9">
+    <cfRule type="cellIs" dxfId="36" priority="32" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11 E11">
+    <cfRule type="cellIs" dxfId="35" priority="31" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="34" priority="30" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="33" priority="29" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="32" priority="28" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="31" priority="27" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18 E18">
+    <cfRule type="cellIs" dxfId="30" priority="26" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20 E20">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:H21">
+    <cfRule type="cellIs" dxfId="28" priority="24" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="27" priority="23" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23 E23">
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="25" priority="21" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H28">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="20" priority="16" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D28">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:H29">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" dxfId="16" priority="12" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32 E32">
+    <cfRule type="cellIs" dxfId="15" priority="11" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="14" priority="10" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34 E34">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14 E14">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -10136,7 +11306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
@@ -11012,10 +12182,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11401,13 +12571,13 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>252</v>
+        <v>728</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -11416,7 +12586,7 @@
         <v>103</v>
       </c>
       <c r="G17" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -11430,7 +12600,7 @@
         <v>49</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>12</v>
@@ -11445,38 +12615,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="1" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>708</v>
+      </c>
+      <c r="H19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>698</v>
+        <v>105</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>225</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>12</v>
@@ -11485,130 +12655,130 @@
         <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>693</v>
-      </c>
-      <c r="H20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>229</v>
+        <v>12</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F21" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="9" t="s">
+      <c r="F21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>696</v>
+        <v>13</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>235</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>107</v>
+        <v>693</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>700</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>696</v>
+        <v>49</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>255</v>
+        <v>699</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>250</v>
+        <v>47</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>704</v>
+        <v>235</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>254</v>
+        <v>700</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" t="s">
-        <v>213</v>
+        <v>13</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>705</v>
+        <v>237</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C26" t="s">
         <v>70</v>
@@ -11616,97 +12786,97 @@
       <c r="D26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>696</v>
+      <c r="E26" t="s">
+        <v>250</v>
       </c>
       <c r="F26" t="s">
-        <v>238</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>91</v>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>254</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="E27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" t="s">
+        <v>705</v>
+      </c>
+      <c r="H27" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>684</v>
+        <v>253</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>685</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>12</v>
+        <v>70</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>696</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
+        <v>238</v>
       </c>
       <c r="G28" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>103</v>
-      </c>
-      <c r="G29" t="s">
-        <v>708</v>
-      </c>
-      <c r="H29" t="s">
+    <row r="29" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>105</v>
+        <v>684</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>225</v>
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>685</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>12</v>
@@ -11715,7 +12885,7 @@
         <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>704</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>12</v>
@@ -11723,22 +12893,22 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>701</v>
+        <v>252</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
         <v>103</v>
       </c>
       <c r="G31" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
@@ -11752,7 +12922,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>12</v>
@@ -11769,251 +12939,302 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>696</v>
+        <v>13</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>107</v>
+        <v>693</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>700</v>
+        <v>105</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>696</v>
+        <v>49</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>229</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G34" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
+        <v>699</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" t="s">
+        <v>235</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>700</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36" t="s">
+        <v>237</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
         <v>687</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
         <v>686</v>
       </c>
-      <c r="F35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F37" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" t="s">
         <v>704</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8 E10">
-    <cfRule type="cellIs" dxfId="768" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="805" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="767" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="804" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="766" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="803" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="765" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="802" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="764" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="801" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9 E9">
-    <cfRule type="cellIs" dxfId="763" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="800" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="762" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="799" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="761" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="798" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="760" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="797" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="759" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="796" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="758" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="795" priority="27" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18 E18">
+    <cfRule type="cellIs" dxfId="794" priority="26" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20 E20">
+    <cfRule type="cellIs" dxfId="793" priority="25" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:H21">
+    <cfRule type="cellIs" dxfId="792" priority="24" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="791" priority="23" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23 E23">
+    <cfRule type="cellIs" dxfId="790" priority="22" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="789" priority="21" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="788" priority="20" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="787" priority="19" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="786" priority="18" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H28">
+    <cfRule type="cellIs" dxfId="785" priority="17" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="cellIs" dxfId="784" priority="16" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D28">
+    <cfRule type="cellIs" dxfId="783" priority="15" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:H29">
+    <cfRule type="cellIs" dxfId="782" priority="14" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="781" priority="13" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" dxfId="780" priority="12" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32 E32">
+    <cfRule type="cellIs" dxfId="779" priority="11" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="778" priority="10" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34 E34">
+    <cfRule type="cellIs" dxfId="777" priority="9" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" dxfId="776" priority="8" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="cellIs" dxfId="775" priority="7" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="cellIs" dxfId="774" priority="6" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="773" priority="5" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="772" priority="4" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="771" priority="3" operator="equal">
+      <formula>"null"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="cellIs" dxfId="770" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16 E16">
-    <cfRule type="cellIs" dxfId="757" priority="25" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18 E18">
-    <cfRule type="cellIs" dxfId="756" priority="24" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:H19">
-    <cfRule type="cellIs" dxfId="755" priority="23" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="754" priority="22" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21 E21">
-    <cfRule type="cellIs" dxfId="753" priority="21" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="752" priority="20" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="751" priority="19" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="750" priority="18" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="749" priority="17" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24:H26">
-    <cfRule type="cellIs" dxfId="748" priority="16" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="747" priority="15" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D26">
-    <cfRule type="cellIs" dxfId="746" priority="14" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27:H27">
-    <cfRule type="cellIs" dxfId="745" priority="13" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="744" priority="12" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="743" priority="11" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30 E30">
-    <cfRule type="cellIs" dxfId="742" priority="10" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="741" priority="9" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32 E32">
-    <cfRule type="cellIs" dxfId="740" priority="8" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="739" priority="7" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="738" priority="6" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" dxfId="737" priority="5" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="736" priority="4" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="735" priority="3" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="734" priority="2" operator="equal">
-      <formula>"null"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D35">
-    <cfRule type="cellIs" dxfId="733" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="769" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14737,612 +15958,612 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E11:E13 H11:H13 E15 H8:H9 E8:E9">
-    <cfRule type="cellIs" dxfId="732" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="768" priority="143" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="731" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="767" priority="142" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="730" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="766" priority="141" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="729" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="765" priority="140" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:D8 F8:G8">
-    <cfRule type="cellIs" dxfId="728" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="764" priority="139" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:D16 F16:G16">
-    <cfRule type="cellIs" dxfId="727" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="763" priority="133" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="726" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="762" priority="132" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="725" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="761" priority="131" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="724" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="760" priority="130" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="723" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="759" priority="129" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="722" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="758" priority="128" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="721" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="757" priority="127" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="720" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="756" priority="126" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="719" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="755" priority="123" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="718" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="754" priority="122" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="717" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="753" priority="121" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10 H10">
-    <cfRule type="cellIs" dxfId="716" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="752" priority="120" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="715" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="751" priority="119" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="714" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="750" priority="118" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="713" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="749" priority="117" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="712" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="748" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:D27 F27:G27">
-    <cfRule type="cellIs" dxfId="711" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="747" priority="115" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="710" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="746" priority="114" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="709" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="745" priority="113" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="708" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="744" priority="112" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="707" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="743" priority="111" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="706" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="742" priority="110" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="705" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="741" priority="109" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="704" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="740" priority="108" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="703" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="739" priority="107" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="702" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="738" priority="106" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49 H49">
-    <cfRule type="cellIs" dxfId="701" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="737" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44 H44">
-    <cfRule type="cellIs" dxfId="700" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="736" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92:D92 F92:G92">
-    <cfRule type="cellIs" dxfId="699" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="735" priority="103" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="cellIs" dxfId="698" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="734" priority="102" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54 H54">
-    <cfRule type="cellIs" dxfId="697" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="733" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="696" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="732" priority="96" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="695" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="731" priority="100" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="694" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="730" priority="99" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="693" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="729" priority="98" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="692" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="728" priority="97" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59 H59">
-    <cfRule type="cellIs" dxfId="691" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="727" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="690" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="726" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="689" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="725" priority="94" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" dxfId="688" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="724" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="687" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="723" priority="92" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E55">
-    <cfRule type="cellIs" dxfId="686" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="722" priority="91" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="685" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="721" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="684" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="720" priority="88" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="683" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="719" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="682" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="718" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="681" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="717" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64 H64">
-    <cfRule type="cellIs" dxfId="680" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="716" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="679" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="715" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63">
-    <cfRule type="cellIs" dxfId="678" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="714" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="677" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="713" priority="80" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="676" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="712" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="cellIs" dxfId="675" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="711" priority="76" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="cellIs" dxfId="674" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="710" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H101">
-    <cfRule type="cellIs" dxfId="673" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="709" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105">
-    <cfRule type="cellIs" dxfId="672" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="708" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106">
-    <cfRule type="cellIs" dxfId="671" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="707" priority="64" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A106:D106 F106:G106">
-    <cfRule type="cellIs" dxfId="670" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="706" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E107:E115">
-    <cfRule type="cellIs" dxfId="669" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="705" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E66 E92:E101">
-    <cfRule type="cellIs" dxfId="668" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="704" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95:H98">
-    <cfRule type="cellIs" dxfId="667" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="703" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102:H112">
-    <cfRule type="cellIs" dxfId="666" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="702" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113:H115">
-    <cfRule type="cellIs" dxfId="665" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="701" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116">
-    <cfRule type="cellIs" dxfId="664" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="700" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="663" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="699" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E117">
-    <cfRule type="cellIs" dxfId="662" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="698" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117">
-    <cfRule type="cellIs" dxfId="661" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="697" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="660" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="696" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="659" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="695" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="658" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="694" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="657" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="693" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E70">
-    <cfRule type="cellIs" dxfId="656" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="692" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74 H74">
-    <cfRule type="cellIs" dxfId="655" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="691" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69 H69">
-    <cfRule type="cellIs" dxfId="654" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="690" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79 H79">
-    <cfRule type="cellIs" dxfId="653" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="689" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" dxfId="652" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="688" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="651" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="687" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E73">
-    <cfRule type="cellIs" dxfId="650" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="686" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="649" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="685" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="648" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="684" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84 H84">
-    <cfRule type="cellIs" dxfId="647" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="683" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="646" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="682" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="645" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="681" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E78">
-    <cfRule type="cellIs" dxfId="644" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="680" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="643" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="679" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="642" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="678" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="641" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="677" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="640" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="676" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="639" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="675" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="638" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="674" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="637" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="673" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E89 H89">
-    <cfRule type="cellIs" dxfId="636" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="672" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="635" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="671" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="634" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="670" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="633" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="669" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90">
-    <cfRule type="cellIs" dxfId="632" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="668" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E91">
-    <cfRule type="cellIs" dxfId="631" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="667" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="630" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="666" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="629" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="665" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="628" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="664" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="627" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="663" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="626" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="662" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="cellIs" dxfId="625" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="661" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="624" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="660" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="623" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="659" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="622" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="658" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="621" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="657" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="620" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="656" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="619" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="655" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="618" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="654" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32 H32">
-    <cfRule type="cellIs" dxfId="617" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="653" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="616" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="652" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="615" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="651" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="614" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="650" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="613" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="649" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="612" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="648" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 H37">
-    <cfRule type="cellIs" dxfId="611" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="647" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15355,7 +16576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
@@ -15972,157 +17193,157 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="610" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="646" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="609" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="645" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="608" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="644" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="607" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="643" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="605" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="642" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="604" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="641" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="603" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="640" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23:H24">
-    <cfRule type="cellIs" dxfId="602" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="639" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25 E25">
-    <cfRule type="cellIs" dxfId="601" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="638" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="600" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="637" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:H22">
-    <cfRule type="cellIs" dxfId="599" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="636" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="598" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="635" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="597" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="634" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="596" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="633" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="595" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="632" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="594" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="631" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="593" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="630" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="592" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="629" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="591" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="628" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="590" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="627" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14 E14">
-    <cfRule type="cellIs" dxfId="589" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="626" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:H15">
-    <cfRule type="cellIs" dxfId="588" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="625" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="587" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="624" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="586" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="623" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="585" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="622" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="584" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="621" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="583" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="620" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 E18">
-    <cfRule type="cellIs" dxfId="582" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="619" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="581" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="618" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="580" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="617" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 E21">
-    <cfRule type="cellIs" dxfId="579" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="616" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17511,377 +18732,377 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E10 E8">
-    <cfRule type="cellIs" dxfId="578" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="615" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="577" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="614" priority="94" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="576" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="613" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="575" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="612" priority="92" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="574" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="611" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14 E23 E16">
-    <cfRule type="cellIs" dxfId="573" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="610" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23 H16 H20 H27:H28 H30 H14 H8:H10 H34 H25">
-    <cfRule type="cellIs" dxfId="572" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="609" priority="88" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25 E27:E28 E30 E34">
-    <cfRule type="cellIs" dxfId="571" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="608" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31 E31">
-    <cfRule type="cellIs" dxfId="570" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="607" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26 E26">
-    <cfRule type="cellIs" dxfId="569" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="606" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H18 E17:E18">
-    <cfRule type="cellIs" dxfId="568" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="605" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22 E22">
-    <cfRule type="cellIs" dxfId="567" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="604" priority="75" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21 E21">
-    <cfRule type="cellIs" dxfId="566" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="603" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="565" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="602" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="564" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="601" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29 E29">
-    <cfRule type="cellIs" dxfId="563" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="600" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="562" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="599" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="561" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="598" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="560" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="597" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="559" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="596" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="cellIs" dxfId="558" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="595" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="557" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="594" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24 E24">
-    <cfRule type="cellIs" dxfId="556" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="593" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" dxfId="555" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="592" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H13">
-    <cfRule type="cellIs" dxfId="554" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="591" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="553" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="590" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:H32">
-    <cfRule type="cellIs" dxfId="552" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="589" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D40 D58 D42">
-    <cfRule type="cellIs" dxfId="551" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="588" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F40 F58">
-    <cfRule type="cellIs" dxfId="550" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="587" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H40 H56 H58">
-    <cfRule type="cellIs" dxfId="549" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="586" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="cellIs" dxfId="548" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="585" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" dxfId="547" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="584" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" dxfId="546" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="583" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" dxfId="545" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="582" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" dxfId="544" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="581" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
-    <cfRule type="cellIs" dxfId="543" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="580" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="542" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="579" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="541" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="578" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55:H55">
-    <cfRule type="cellIs" dxfId="540" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="577" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57 E57">
-    <cfRule type="cellIs" dxfId="539" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="576" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
-    <cfRule type="cellIs" dxfId="538" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="575" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59 E59">
-    <cfRule type="cellIs" dxfId="537" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="574" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="cellIs" dxfId="536" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="573" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:H41">
-    <cfRule type="cellIs" dxfId="535" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="572" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="534" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="571" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="533" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="570" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="532" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="569" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="531" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="568" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="530" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="567" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="529" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="566" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45 E45">
-    <cfRule type="cellIs" dxfId="528" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="565" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" dxfId="527" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="564" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="526" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="563" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="525" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="562" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" dxfId="524" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="561" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" dxfId="523" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="560" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="522" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="559" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="cellIs" dxfId="521" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="558" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48">
-    <cfRule type="cellIs" dxfId="520" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="557" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="519" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="556" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E49">
-    <cfRule type="cellIs" dxfId="518" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="555" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="517" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="554" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="516" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="553" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="cellIs" dxfId="515" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="552" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51 E51">
-    <cfRule type="cellIs" dxfId="514" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="551" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
-    <cfRule type="cellIs" dxfId="513" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="550" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="512" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="549" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="511" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="548" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" dxfId="510" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="547" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="cellIs" dxfId="509" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="546" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="508" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="545" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54 E54">
-    <cfRule type="cellIs" dxfId="507" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="544" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
-    <cfRule type="cellIs" dxfId="506" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="543" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="505" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="542" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="504" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="541" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23225,1107 +24446,1107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E127:E128 H127:H128 E114:E115 H114:H115 E101:E102 H101:H102 E88:E89 H88:H89">
-    <cfRule type="cellIs" dxfId="503" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="540" priority="245" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="502" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="539" priority="244" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="501" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="538" priority="243" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="500" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="537" priority="242" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="499" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="536" priority="241" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="498" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="535" priority="240" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="497" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="534" priority="239" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="496" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="533" priority="238" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="495" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="532" priority="237" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="494" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="531" priority="236" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="493" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="530" priority="235" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="492" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="529" priority="234" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E15 E17">
-    <cfRule type="cellIs" dxfId="491" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="528" priority="231" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15 D17">
-    <cfRule type="cellIs" dxfId="490" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="527" priority="230" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="489" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="526" priority="229" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="488" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="525" priority="228" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E20 E22">
-    <cfRule type="cellIs" dxfId="487" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="524" priority="227" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20 D22">
-    <cfRule type="cellIs" dxfId="486" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="523" priority="226" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="485" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="522" priority="225" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="484" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="521" priority="224" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E25 E27">
-    <cfRule type="cellIs" dxfId="483" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="520" priority="223" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25 D27">
-    <cfRule type="cellIs" dxfId="482" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="519" priority="222" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="481" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="518" priority="221" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="480" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="517" priority="220" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E30 E32">
-    <cfRule type="cellIs" dxfId="479" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="516" priority="219" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30 D32">
-    <cfRule type="cellIs" dxfId="478" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="515" priority="218" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="477" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="514" priority="217" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="476" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="513" priority="216" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33:E35 E37">
-    <cfRule type="cellIs" dxfId="475" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="512" priority="215" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35 D37">
-    <cfRule type="cellIs" dxfId="474" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="511" priority="214" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="473" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="510" priority="213" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="cellIs" dxfId="472" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="509" priority="212" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65:E70">
-    <cfRule type="cellIs" dxfId="471" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="508" priority="204" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:H63">
-    <cfRule type="cellIs" dxfId="470" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="507" priority="207" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E64">
-    <cfRule type="cellIs" dxfId="469" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="506" priority="206" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65:H70">
-    <cfRule type="cellIs" dxfId="468" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="505" priority="205" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="467" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="504" priority="202" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="466" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="503" priority="203" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:E81">
-    <cfRule type="cellIs" dxfId="465" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="502" priority="200" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80:H81">
-    <cfRule type="cellIs" dxfId="464" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="201" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:E76">
-    <cfRule type="cellIs" dxfId="463" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="198" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74:H76">
-    <cfRule type="cellIs" dxfId="462" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="199" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:E78">
-    <cfRule type="cellIs" dxfId="461" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="196" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77:H78">
-    <cfRule type="cellIs" dxfId="460" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="197" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="459" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="194" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="458" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="195" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E84">
-    <cfRule type="cellIs" dxfId="457" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="193" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84">
-    <cfRule type="cellIs" dxfId="456" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="192" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85">
-    <cfRule type="cellIs" dxfId="455" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="190" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="454" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="191" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="453" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="187" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E86">
-    <cfRule type="cellIs" dxfId="452" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="189" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="451" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="188" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E93:E94">
-    <cfRule type="cellIs" dxfId="450" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="183" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93:H94">
-    <cfRule type="cellIs" dxfId="449" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="184" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E90:E91">
-    <cfRule type="cellIs" dxfId="448" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="179" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90:H91">
-    <cfRule type="cellIs" dxfId="447" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="180" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="446" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="177" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="445" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="178" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E97">
-    <cfRule type="cellIs" dxfId="444" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="176" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D97">
-    <cfRule type="cellIs" dxfId="443" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="175" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="cellIs" dxfId="442" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="173" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="441" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="174" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E100">
-    <cfRule type="cellIs" dxfId="440" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="170" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99">
-    <cfRule type="cellIs" dxfId="439" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="172" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="cellIs" dxfId="438" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="171" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106:E107">
-    <cfRule type="cellIs" dxfId="437" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="166" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H106:H107">
-    <cfRule type="cellIs" dxfId="436" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="167" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103:E104">
-    <cfRule type="cellIs" dxfId="435" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="162" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H103:H104">
-    <cfRule type="cellIs" dxfId="434" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="163" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109">
-    <cfRule type="cellIs" dxfId="433" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="160" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="cellIs" dxfId="432" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="161" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E110">
-    <cfRule type="cellIs" dxfId="431" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="159" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110">
-    <cfRule type="cellIs" dxfId="430" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="158" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E111">
-    <cfRule type="cellIs" dxfId="429" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="156" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H111">
-    <cfRule type="cellIs" dxfId="428" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="157" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E113">
-    <cfRule type="cellIs" dxfId="427" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="153" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112">
-    <cfRule type="cellIs" dxfId="426" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="155" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H113">
-    <cfRule type="cellIs" dxfId="425" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="154" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E119:E120">
-    <cfRule type="cellIs" dxfId="424" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="149" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119:H120">
-    <cfRule type="cellIs" dxfId="423" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="150" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E116:E117">
-    <cfRule type="cellIs" dxfId="422" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="145" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116:H117">
-    <cfRule type="cellIs" dxfId="421" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="146" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E122">
-    <cfRule type="cellIs" dxfId="420" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="143" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H122">
-    <cfRule type="cellIs" dxfId="419" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="144" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123">
-    <cfRule type="cellIs" dxfId="418" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="142" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="417" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="141" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124">
-    <cfRule type="cellIs" dxfId="416" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="139" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H124">
-    <cfRule type="cellIs" dxfId="415" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="140" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E126">
-    <cfRule type="cellIs" dxfId="414" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="136" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E125">
-    <cfRule type="cellIs" dxfId="413" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="138" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H126">
-    <cfRule type="cellIs" dxfId="412" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="137" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E132:E133">
-    <cfRule type="cellIs" dxfId="411" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="132" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H132:H133">
-    <cfRule type="cellIs" dxfId="410" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="133" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E129:E130">
-    <cfRule type="cellIs" dxfId="409" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="128" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H129:H130">
-    <cfRule type="cellIs" dxfId="408" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="129" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E135">
-    <cfRule type="cellIs" dxfId="407" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="126" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H135">
-    <cfRule type="cellIs" dxfId="406" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="127" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E136">
-    <cfRule type="cellIs" dxfId="405" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="125" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D136">
-    <cfRule type="cellIs" dxfId="404" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="124" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E137">
-    <cfRule type="cellIs" dxfId="403" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="122" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H137">
-    <cfRule type="cellIs" dxfId="402" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="123" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E140:E141 H140:H141">
-    <cfRule type="cellIs" dxfId="401" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="121" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E139">
-    <cfRule type="cellIs" dxfId="400" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="118" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="cellIs" dxfId="399" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="120" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H139">
-    <cfRule type="cellIs" dxfId="398" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="119" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E145:E146">
-    <cfRule type="cellIs" dxfId="397" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="116" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H145:H146">
-    <cfRule type="cellIs" dxfId="396" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="117" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E142:E143">
-    <cfRule type="cellIs" dxfId="395" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="114" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H142:H143">
-    <cfRule type="cellIs" dxfId="394" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="115" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E148">
-    <cfRule type="cellIs" dxfId="393" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="112" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H148">
-    <cfRule type="cellIs" dxfId="392" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="113" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E149">
-    <cfRule type="cellIs" dxfId="391" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="111" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D149">
-    <cfRule type="cellIs" dxfId="390" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="110" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E150">
-    <cfRule type="cellIs" dxfId="389" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="108" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H150">
-    <cfRule type="cellIs" dxfId="388" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="109" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E153:E154 H153:H154">
-    <cfRule type="cellIs" dxfId="387" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="107" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E152">
-    <cfRule type="cellIs" dxfId="386" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E151">
-    <cfRule type="cellIs" dxfId="385" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="106" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H152">
-    <cfRule type="cellIs" dxfId="384" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E158:E159">
-    <cfRule type="cellIs" dxfId="383" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="102" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H158:H159">
-    <cfRule type="cellIs" dxfId="382" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="103" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E155:E156">
-    <cfRule type="cellIs" dxfId="381" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="100" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H155:H156">
-    <cfRule type="cellIs" dxfId="380" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="101" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E161">
-    <cfRule type="cellIs" dxfId="379" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="98" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H161">
-    <cfRule type="cellIs" dxfId="378" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="99" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="cellIs" dxfId="377" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="97" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="cellIs" dxfId="376" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="96" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E163">
-    <cfRule type="cellIs" dxfId="375" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="94" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H163">
-    <cfRule type="cellIs" dxfId="374" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E166:E167 H166:H167">
-    <cfRule type="cellIs" dxfId="373" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E165">
-    <cfRule type="cellIs" dxfId="372" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E164">
-    <cfRule type="cellIs" dxfId="371" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="92" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H165">
-    <cfRule type="cellIs" dxfId="370" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="91" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171:E172">
-    <cfRule type="cellIs" dxfId="369" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="88" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H171:H172">
-    <cfRule type="cellIs" dxfId="368" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168:E169">
-    <cfRule type="cellIs" dxfId="367" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H168:H169">
-    <cfRule type="cellIs" dxfId="366" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E174">
-    <cfRule type="cellIs" dxfId="365" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H174">
-    <cfRule type="cellIs" dxfId="364" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E175">
-    <cfRule type="cellIs" dxfId="363" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="362" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E176">
-    <cfRule type="cellIs" dxfId="361" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="80" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H176">
-    <cfRule type="cellIs" dxfId="360" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E179:E180 H179:H180">
-    <cfRule type="cellIs" dxfId="359" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E178">
-    <cfRule type="cellIs" dxfId="358" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="76" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E177">
-    <cfRule type="cellIs" dxfId="357" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H178">
-    <cfRule type="cellIs" dxfId="356" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E184:E185">
-    <cfRule type="cellIs" dxfId="355" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="74" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H184:H185">
-    <cfRule type="cellIs" dxfId="354" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="75" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E181:E182">
-    <cfRule type="cellIs" dxfId="353" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H181:H182">
-    <cfRule type="cellIs" dxfId="352" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="73" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E187">
-    <cfRule type="cellIs" dxfId="351" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H187">
-    <cfRule type="cellIs" dxfId="350" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E188">
-    <cfRule type="cellIs" dxfId="349" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D188">
-    <cfRule type="cellIs" dxfId="348" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E189">
-    <cfRule type="cellIs" dxfId="347" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H189">
-    <cfRule type="cellIs" dxfId="346" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E192:E193 H192:H193">
-    <cfRule type="cellIs" dxfId="345" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E191">
-    <cfRule type="cellIs" dxfId="344" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E190">
-    <cfRule type="cellIs" dxfId="343" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="64" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H191">
-    <cfRule type="cellIs" dxfId="342" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E197:E198">
-    <cfRule type="cellIs" dxfId="341" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H197:H198">
-    <cfRule type="cellIs" dxfId="340" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E194:E195">
-    <cfRule type="cellIs" dxfId="339" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H194:H195">
-    <cfRule type="cellIs" dxfId="338" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E200">
-    <cfRule type="cellIs" dxfId="337" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H200">
-    <cfRule type="cellIs" dxfId="336" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E201">
-    <cfRule type="cellIs" dxfId="335" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D201">
-    <cfRule type="cellIs" dxfId="334" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E202">
-    <cfRule type="cellIs" dxfId="333" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H202">
-    <cfRule type="cellIs" dxfId="332" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E40 E42">
-    <cfRule type="cellIs" dxfId="331" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40 D42">
-    <cfRule type="cellIs" dxfId="330" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="329" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="328" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E45 E47">
-    <cfRule type="cellIs" dxfId="327" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45 D47">
-    <cfRule type="cellIs" dxfId="326" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="325" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="324" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E50 E52">
-    <cfRule type="cellIs" dxfId="323" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50 D52">
-    <cfRule type="cellIs" dxfId="322" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="321" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="41" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E51">
-    <cfRule type="cellIs" dxfId="320" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53:E55 E57">
-    <cfRule type="cellIs" dxfId="319" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55 D57">
-    <cfRule type="cellIs" dxfId="318" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="317" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E56">
-    <cfRule type="cellIs" dxfId="316" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58:E60 E62">
-    <cfRule type="cellIs" dxfId="315" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60 D62">
-    <cfRule type="cellIs" dxfId="314" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="313" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="312" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E203">
-    <cfRule type="cellIs" dxfId="311" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H204">
-    <cfRule type="cellIs" dxfId="310" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E204">
-    <cfRule type="cellIs" dxfId="309" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E205">
-    <cfRule type="cellIs" dxfId="308" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E206:E210">
-    <cfRule type="cellIs" dxfId="307" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H206:H210">
-    <cfRule type="cellIs" dxfId="306" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E212">
-    <cfRule type="cellIs" dxfId="305" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H212">
-    <cfRule type="cellIs" dxfId="304" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E214:E216">
-    <cfRule type="cellIs" dxfId="303" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H214:H216">
-    <cfRule type="cellIs" dxfId="302" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E217:E218">
-    <cfRule type="cellIs" dxfId="301" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H217:H218">
-    <cfRule type="cellIs" dxfId="300" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E220">
-    <cfRule type="cellIs" dxfId="299" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H220">
-    <cfRule type="cellIs" dxfId="298" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E221">
-    <cfRule type="cellIs" dxfId="297" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D221">
-    <cfRule type="cellIs" dxfId="296" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E222">
-    <cfRule type="cellIs" dxfId="295" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H222">
-    <cfRule type="cellIs" dxfId="294" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E223">
-    <cfRule type="cellIs" dxfId="293" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E224">
-    <cfRule type="cellIs" dxfId="292" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H224">
-    <cfRule type="cellIs" dxfId="291" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E230">
-    <cfRule type="cellIs" dxfId="290" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D230">
-    <cfRule type="cellIs" dxfId="289" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E229">
-    <cfRule type="cellIs" dxfId="288" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H229">
-    <cfRule type="cellIs" dxfId="287" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H231">
-    <cfRule type="cellIs" dxfId="286" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E231">
-    <cfRule type="cellIs" dxfId="285" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E225:E227">
-    <cfRule type="cellIs" dxfId="284" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H225:H227">
-    <cfRule type="cellIs" dxfId="283" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26381,397 +27602,397 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E43:E44 H43:H44 E49:E52 H49:H51 E54:E56 H54:H55 H46 E46">
-    <cfRule type="cellIs" dxfId="282" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="281" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="83" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="280" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="279" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="81" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="278" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="80" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="277" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="79" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="276" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="275" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="274" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="76" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="273" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="75" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="272" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="74" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="271" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="73" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="270" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="269" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="268" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="267" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="69" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="266" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="265" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="264" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="66" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="263" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="262" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="261" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="260" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="259" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="258" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="58" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E19 E21:E22">
-    <cfRule type="cellIs" dxfId="257" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H24">
-    <cfRule type="cellIs" dxfId="256" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="255" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="55" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="254" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="cellIs" dxfId="253" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="53" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H34">
-    <cfRule type="cellIs" dxfId="252" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E36">
-    <cfRule type="cellIs" dxfId="251" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="51" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:H38">
-    <cfRule type="cellIs" dxfId="250" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="249" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="248" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="48" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:H39">
-    <cfRule type="cellIs" dxfId="247" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="47" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="cellIs" dxfId="246" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="245" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="244" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E57">
-    <cfRule type="cellIs" dxfId="243" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="cellIs" dxfId="242" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57">
-    <cfRule type="cellIs" dxfId="241" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57:H58">
-    <cfRule type="cellIs" dxfId="240" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="37" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="239" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="238" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="35" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:H59">
-    <cfRule type="cellIs" dxfId="237" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E63:E64 H63:H64 E66:E67 H66:H67 H69:H70 E69:E70">
-    <cfRule type="cellIs" dxfId="236" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" dxfId="235" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="234" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61">
-    <cfRule type="cellIs" dxfId="233" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="232" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="231" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71">
-    <cfRule type="cellIs" dxfId="230" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71">
-    <cfRule type="cellIs" dxfId="229" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="228" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="25" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E72">
-    <cfRule type="cellIs" dxfId="227" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="226" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73:H73">
-    <cfRule type="cellIs" dxfId="225" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="cellIs" dxfId="224" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="223" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E75">
-    <cfRule type="cellIs" dxfId="222" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="19" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:E78">
-    <cfRule type="cellIs" dxfId="221" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="cellIs" dxfId="220" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="219" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E82">
-    <cfRule type="cellIs" dxfId="218" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="15" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" dxfId="217" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E85:E86">
-    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="13" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79">
-    <cfRule type="cellIs" dxfId="215" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79">
-    <cfRule type="cellIs" dxfId="214" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="213" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" dxfId="212" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="211" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E87">
-    <cfRule type="cellIs" dxfId="210" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87">
-    <cfRule type="cellIs" dxfId="209" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="208" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E88">
-    <cfRule type="cellIs" dxfId="207" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="206" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="205" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" dxfId="204" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29405,512 +30626,512 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8">
-    <cfRule type="cellIs" dxfId="203" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="106" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="202" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="105" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="201" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="104" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="200" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="103" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="199" priority="101" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="236" priority="101" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:H7">
-    <cfRule type="cellIs" dxfId="198" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="100" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:C12 C14">
-    <cfRule type="containsText" dxfId="197" priority="99" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="234" priority="99" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E13">
-    <cfRule type="cellIs" dxfId="196" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="98" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="195" priority="97" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="232" priority="97" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E14">
-    <cfRule type="cellIs" dxfId="194" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="96" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:E15">
-    <cfRule type="cellIs" dxfId="193" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="95" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="192" priority="94" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="229" priority="94" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:E16">
-    <cfRule type="cellIs" dxfId="191" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="93" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="190" priority="92" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="227" priority="92" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="189" priority="91" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="226" priority="91" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:E17">
-    <cfRule type="cellIs" dxfId="188" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="90" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:H18">
-    <cfRule type="cellIs" dxfId="187" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="89" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:F19">
-    <cfRule type="cellIs" dxfId="186" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="88" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20:F21">
-    <cfRule type="cellIs" dxfId="185" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="87" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22">
-    <cfRule type="cellIs" dxfId="184" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="86" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23 E23">
-    <cfRule type="cellIs" dxfId="183" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="85" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:H24">
-    <cfRule type="cellIs" dxfId="182" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="84" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C32">
-    <cfRule type="containsText" dxfId="181" priority="83" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="218" priority="83" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:F32">
-    <cfRule type="cellIs" dxfId="180" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="82" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="containsText" dxfId="179" priority="79" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="216" priority="79" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34:E34">
-    <cfRule type="cellIs" dxfId="178" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="78" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48">
-    <cfRule type="cellIs" dxfId="177" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="71" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="cellIs" dxfId="176" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="77" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="containsText" dxfId="175" priority="76" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="212" priority="76" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="containsText" dxfId="174" priority="75" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="211" priority="75" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:E35">
-    <cfRule type="cellIs" dxfId="173" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="74" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C42">
-    <cfRule type="containsText" dxfId="172" priority="73" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="209" priority="73" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C36)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:F42">
-    <cfRule type="cellIs" dxfId="171" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="72" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:H43">
-    <cfRule type="cellIs" dxfId="170" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="70" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47 C49">
-    <cfRule type="containsText" dxfId="169" priority="69" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="206" priority="69" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:F47 D49:F49">
-    <cfRule type="cellIs" dxfId="168" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="68" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:H50">
-    <cfRule type="cellIs" dxfId="167" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="67" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52:C53">
-    <cfRule type="containsText" dxfId="166" priority="66" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="203" priority="66" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:F53">
-    <cfRule type="cellIs" dxfId="165" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="65" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C54">
-    <cfRule type="containsText" dxfId="164" priority="64" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="201" priority="64" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:F54">
-    <cfRule type="cellIs" dxfId="163" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="63" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56:H57 E56:E57">
-    <cfRule type="cellIs" dxfId="162" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="62" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44 E44">
-    <cfRule type="cellIs" dxfId="161" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="61" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25 E25">
-    <cfRule type="cellIs" dxfId="160" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="60" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A59:H59">
-    <cfRule type="cellIs" dxfId="159" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="59" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57">
-    <cfRule type="containsText" dxfId="158" priority="58" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="195" priority="58" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51 E51">
-    <cfRule type="cellIs" dxfId="157" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="57" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:F65">
-    <cfRule type="cellIs" dxfId="156" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="52" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60 E60">
-    <cfRule type="cellIs" dxfId="155" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="56" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:C62">
-    <cfRule type="containsText" dxfId="154" priority="55" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="191" priority="55" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61:F64">
-    <cfRule type="cellIs" dxfId="153" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="54" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65">
-    <cfRule type="containsText" dxfId="152" priority="53" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="189" priority="53" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63:C64">
-    <cfRule type="containsText" dxfId="151" priority="51" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="188" priority="51" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67 E67">
-    <cfRule type="cellIs" dxfId="150" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="50" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A68:H68">
-    <cfRule type="cellIs" dxfId="149" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="49" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C69:C71 C73">
-    <cfRule type="containsText" dxfId="148" priority="48" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="185" priority="48" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:F71 D73:F73">
-    <cfRule type="cellIs" dxfId="147" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="46" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75 E75">
-    <cfRule type="cellIs" dxfId="146" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="45" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:H76">
-    <cfRule type="cellIs" dxfId="145" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="44" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:F78">
-    <cfRule type="cellIs" dxfId="144" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="43" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D80:F80">
-    <cfRule type="cellIs" dxfId="143" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="42" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C77:C78 C80">
-    <cfRule type="containsText" dxfId="142" priority="41" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="179" priority="41" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82 E82">
-    <cfRule type="cellIs" dxfId="141" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="40" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:H83">
-    <cfRule type="cellIs" dxfId="140" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="39" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D85:F85">
-    <cfRule type="cellIs" dxfId="139" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="38" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C85">
-    <cfRule type="containsText" dxfId="138" priority="37" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="175" priority="37" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D84:F84">
-    <cfRule type="cellIs" dxfId="137" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="36" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C84">
-    <cfRule type="containsText" dxfId="136" priority="35" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="173" priority="35" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87 E87">
-    <cfRule type="cellIs" dxfId="135" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A88:H88">
-    <cfRule type="cellIs" dxfId="134" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D89:F90">
-    <cfRule type="cellIs" dxfId="133" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C89:C90">
-    <cfRule type="containsText" dxfId="132" priority="31" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="169" priority="31" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:F91">
-    <cfRule type="cellIs" dxfId="131" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="130" priority="29" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="167" priority="29" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93 E93">
-    <cfRule type="cellIs" dxfId="129" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94:H94">
-    <cfRule type="cellIs" dxfId="128" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D96:F96">
-    <cfRule type="cellIs" dxfId="127" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C96">
-    <cfRule type="containsText" dxfId="126" priority="25" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="163" priority="25" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="containsText" dxfId="125" priority="24" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="162" priority="24" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D95:F95">
-    <cfRule type="cellIs" dxfId="124" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72:F72">
-    <cfRule type="cellIs" dxfId="123" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="122" priority="21" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="159" priority="21" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:F79">
-    <cfRule type="cellIs" dxfId="121" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="containsText" dxfId="120" priority="19" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="157" priority="19" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98 E98">
-    <cfRule type="cellIs" dxfId="119" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="18" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A99:H99">
-    <cfRule type="cellIs" dxfId="118" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="17" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:F101">
-    <cfRule type="cellIs" dxfId="117" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="16" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100:C101">
-    <cfRule type="containsText" dxfId="116" priority="15" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="153" priority="15" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102:F102">
-    <cfRule type="cellIs" dxfId="115" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="14" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="114" priority="13" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="151" priority="13" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:H104">
-    <cfRule type="cellIs" dxfId="113" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D107:F107">
-    <cfRule type="cellIs" dxfId="112" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="containsText" dxfId="111" priority="10" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="148" priority="10" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D106:F106">
-    <cfRule type="cellIs" dxfId="110" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="containsText" dxfId="109" priority="8" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="146" priority="8" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H105 E105">
-    <cfRule type="cellIs" dxfId="108" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A109:H109">
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110:F111">
-    <cfRule type="cellIs" dxfId="106" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D113:F113">
-    <cfRule type="cellIs" dxfId="105" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110:C111 C113">
-    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="141" priority="3" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112:F112">
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C112">
-    <cfRule type="containsText" dxfId="102" priority="1" operator="containsText" text="null">
+    <cfRule type="containsText" dxfId="139" priority="1" operator="containsText" text="null">
       <formula>NOT(ISERROR(SEARCH("null",C112)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30962,132 +32183,132 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E9:E10 E12:E16 E19 G21:H22 G24:H28">
-    <cfRule type="cellIs" dxfId="101" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="34" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="100" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="33" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="99" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="32" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="98" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="31" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7 H7">
-    <cfRule type="cellIs" dxfId="97" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="30" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11 E11">
-    <cfRule type="cellIs" dxfId="96" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="29" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H16 H19">
-    <cfRule type="cellIs" dxfId="95" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="28" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="94" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="27" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17 E17">
-    <cfRule type="cellIs" dxfId="93" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="26" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18 E18">
-    <cfRule type="cellIs" dxfId="92" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="24" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" dxfId="91" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="23" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20 E20">
-    <cfRule type="cellIs" dxfId="90" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="22" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="cellIs" dxfId="89" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="21" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="88" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="20" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="cellIs" dxfId="87" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="12" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:H34">
-    <cfRule type="cellIs" dxfId="86" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="11" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35:H35">
-    <cfRule type="cellIs" dxfId="85" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="10" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36:H36">
-    <cfRule type="cellIs" dxfId="84" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="9" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41:H41">
-    <cfRule type="cellIs" dxfId="83" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="8" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:H42">
-    <cfRule type="cellIs" dxfId="82" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="7" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43:H43">
-    <cfRule type="cellIs" dxfId="81" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:H44">
-    <cfRule type="cellIs" dxfId="80" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="5" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37:G40">
-    <cfRule type="cellIs" dxfId="79" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="4" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H40">
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="3" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:H8">
-    <cfRule type="cellIs" dxfId="77" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A23:H23">
-    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="1" operator="equal">
       <formula>"null"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -6778,7 +6778,7 @@
       <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.83"/>
@@ -7770,7 +7770,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.84"/>
@@ -8199,11 +8199,11 @@
       <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="59.33"/>
@@ -9947,17 +9947,17 @@
   </sheetPr>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.51"/>
   </cols>
   <sheetData>
@@ -11024,7 +11024,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="54.5"/>
@@ -11228,10 +11228,10 @@
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.16"/>
   </cols>
   <sheetData>
@@ -12120,13 +12120,13 @@
       <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.51"/>
   </cols>
   <sheetData>
@@ -13192,7 +13192,7 @@
       <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.83"/>
@@ -16531,7 +16531,7 @@
       <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18"/>
@@ -17320,13 +17320,13 @@
       <selection pane="topLeft" activeCell="G38" activeCellId="0" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="32.66"/>
   </cols>
@@ -19088,7 +19088,7 @@
       <selection pane="topLeft" activeCell="F199" activeCellId="0" sqref="F199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="20.98"/>
@@ -25541,13 +25541,13 @@
       <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="28.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="42.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.17"/>
   </cols>
@@ -27990,24 +27990,23 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
-    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A113" activeCellId="0" sqref="A113"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="64.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="33.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="53.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.23"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28036,7 +28035,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
         <v>397</v>
       </c>
@@ -28059,7 +28058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>12</v>
       </c>
@@ -28082,7 +28081,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>17</v>
       </c>
@@ -28105,7 +28104,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
         <v>20</v>
       </c>
@@ -28128,7 +28127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>23</v>
       </c>
@@ -28151,7 +28150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="3" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4" t="s">
         <v>398</v>
       </c>
@@ -28174,7 +28173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
         <v>399</v>
       </c>
@@ -28197,7 +28196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
         <v>401</v>
       </c>
@@ -28220,7 +28219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
         <v>401</v>
       </c>
@@ -28243,7 +28242,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
         <v>401</v>
       </c>
@@ -28266,7 +28265,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
         <v>401</v>
       </c>
@@ -28289,7 +28288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
         <v>406</v>
       </c>
@@ -28312,7 +28311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
         <v>408</v>
       </c>
@@ -28335,7 +28334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
         <v>410</v>
       </c>
@@ -28358,7 +28357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
         <v>401</v>
       </c>
@@ -28381,7 +28380,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
         <v>413</v>
       </c>
@@ -28404,7 +28403,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" s="3" customFormat="true" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4" t="s">
         <v>415</v>
       </c>
@@ -28427,7 +28426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
         <v>416</v>
       </c>
@@ -28450,7 +28449,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
         <v>419</v>
       </c>
@@ -28473,7 +28472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
         <v>422</v>
       </c>
@@ -28496,7 +28495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>425</v>
       </c>
@@ -28519,7 +28518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>23</v>
       </c>
@@ -28542,7 +28541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="3" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="9"/>
       <c r="B24" s="4" t="s">
         <v>427</v>
@@ -28566,7 +28565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>23</v>
       </c>
@@ -28589,7 +28588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>401</v>
       </c>
@@ -28612,7 +28611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>401</v>
       </c>
@@ -28635,7 +28634,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>406</v>
       </c>
@@ -28658,7 +28657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>431</v>
       </c>
@@ -28681,7 +28680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
         <v>433</v>
       </c>
@@ -28704,7 +28703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
         <v>435</v>
       </c>
@@ -28727,7 +28726,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
         <v>437</v>
       </c>
@@ -28796,7 +28795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
         <v>440</v>
       </c>
@@ -28819,7 +28818,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
         <v>440</v>
       </c>
@@ -28842,7 +28841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
         <v>441</v>
       </c>
@@ -28865,7 +28864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
         <v>442</v>
       </c>
@@ -28888,7 +28887,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
         <v>443</v>
       </c>
@@ -28911,7 +28910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
         <v>445</v>
       </c>
@@ -28934,7 +28933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
         <v>447</v>
       </c>
@@ -28957,7 +28956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" s="3" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="3" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="4" t="s">
         <v>449</v>
       </c>
@@ -28980,7 +28979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>23</v>
       </c>
@@ -29003,7 +29002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>451</v>
       </c>
@@ -29026,7 +29025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>451</v>
       </c>
@@ -29049,7 +29048,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>454</v>
       </c>
@@ -29072,7 +29071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
         <v>456</v>
       </c>
@@ -29095,7 +29094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
         <v>459</v>
       </c>
@@ -29118,7 +29117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="3" customFormat="true" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="4" t="s">
         <v>461</v>
       </c>
@@ -29141,7 +29140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
         <v>23</v>
       </c>
@@ -29164,7 +29163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
         <v>462</v>
       </c>
@@ -29187,7 +29186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
         <v>462</v>
       </c>
@@ -29210,7 +29209,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
         <v>465</v>
       </c>
@@ -29233,7 +29232,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
         <v>467</v>
       </c>
@@ -29256,7 +29255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
         <v>23</v>
       </c>
@@ -29279,7 +29278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
         <v>469</v>
       </c>
@@ -29302,7 +29301,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
         <v>467</v>
       </c>
@@ -29325,7 +29324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="3" customFormat="true" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="4" t="s">
         <v>471</v>
       </c>
@@ -29348,7 +29347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
         <v>23</v>
       </c>
@@ -29371,7 +29370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
         <v>472</v>
       </c>
@@ -29394,7 +29393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
         <v>472</v>
       </c>
@@ -29417,7 +29416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
         <v>472</v>
       </c>
@@ -29440,7 +29439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
         <v>476</v>
       </c>
@@ -29463,7 +29462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
         <v>478</v>
       </c>
@@ -29486,7 +29485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
         <v>467</v>
       </c>
@@ -29509,7 +29508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
         <v>23</v>
       </c>
@@ -29532,7 +29531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" s="3" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="3" customFormat="true" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="9"/>
       <c r="B67" s="4" t="s">
         <v>480</v>
@@ -29556,7 +29555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
         <v>481</v>
       </c>
@@ -29579,7 +29578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
         <v>481</v>
       </c>
@@ -29602,7 +29601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
         <v>481</v>
       </c>
@@ -29625,7 +29624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
         <v>485</v>
       </c>
@@ -29648,7 +29647,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
         <v>487</v>
       </c>
@@ -29671,7 +29670,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
         <v>467</v>
       </c>
@@ -29694,7 +29693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
         <v>23</v>
       </c>
@@ -29717,7 +29716,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" s="3" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" s="3" customFormat="true" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="4" t="s">
         <v>489</v>
       </c>
@@ -29740,7 +29739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
         <v>490</v>
       </c>
@@ -29763,7 +29762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
         <v>490</v>
       </c>
@@ -29786,7 +29785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
         <v>493</v>
       </c>
@@ -29809,7 +29808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
         <v>495</v>
       </c>
@@ -29832,7 +29831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="0" t="s">
         <v>467</v>
       </c>
@@ -29855,7 +29854,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
         <v>23</v>
       </c>
@@ -29878,7 +29877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="3" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="4" t="s">
         <v>497</v>
       </c>
@@ -29901,7 +29900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
         <v>498</v>
       </c>
@@ -29924,7 +29923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
         <v>500</v>
       </c>
@@ -29947,7 +29946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
         <v>467</v>
       </c>
@@ -29970,7 +29969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
         <v>23</v>
       </c>
@@ -29993,7 +29992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" s="3" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="9"/>
       <c r="B87" s="4" t="s">
         <v>502</v>
@@ -30017,7 +30016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
         <v>503</v>
       </c>
@@ -30040,7 +30039,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
         <v>503</v>
       </c>
@@ -30063,7 +30062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
         <v>506</v>
       </c>
@@ -30086,7 +30085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
         <v>467</v>
       </c>
@@ -30109,7 +30108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
         <v>23</v>
       </c>
@@ -30132,7 +30131,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" s="3" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="4" t="s">
         <v>508</v>
       </c>
@@ -30155,7 +30154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
         <v>509</v>
       </c>
@@ -30178,7 +30177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
         <v>511</v>
       </c>
@@ -30201,7 +30200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
         <v>513</v>
       </c>
@@ -30224,7 +30223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
         <v>23</v>
       </c>
@@ -30247,7 +30246,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="3" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="4" t="s">
         <v>502</v>
       </c>
@@ -30270,7 +30269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
         <v>503</v>
       </c>
@@ -30293,7 +30292,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
         <v>503</v>
       </c>
@@ -30316,7 +30315,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
         <v>506</v>
       </c>
@@ -30339,7 +30338,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
         <v>513</v>
       </c>
@@ -30362,7 +30361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" s="3" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="4" t="s">
         <v>497</v>
       </c>
@@ -30385,7 +30384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
         <v>23</v>
       </c>
@@ -30408,7 +30407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
         <v>498</v>
       </c>
@@ -30431,7 +30430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="0" t="s">
         <v>500</v>
       </c>
@@ -30454,7 +30453,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="0" t="s">
         <v>513</v>
       </c>
@@ -30477,7 +30476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" s="3" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" s="3" customFormat="true" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="4" t="s">
         <v>489</v>
       </c>
@@ -30500,7 +30499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
         <v>490</v>
       </c>
@@ -30523,7 +30522,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
         <v>490</v>
       </c>
@@ -30546,7 +30545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
         <v>493</v>
       </c>
@@ -30569,7 +30568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
         <v>495</v>
       </c>
@@ -30592,46 +30591,6 @@
         <v>34</v>
       </c>
     </row>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="A2:H2 H6 E4:E6 E8">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="595">
@@ -31124,11 +31083,11 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -31144,7 +31103,7 @@
       <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.83"/>
